--- a/data/hotels_by_city/Dallas/Dallas_shard_660.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_660.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="576">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1668 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r582296795-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>56538</t>
+  </si>
+  <si>
+    <t>109028</t>
+  </si>
+  <si>
+    <t>582296795</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Our home away from home for over 30 days.</t>
+  </si>
+  <si>
+    <t>We were displaced by flooding in our home. It was easy to make this place like our home. Rooms are nice and well kept. Very usable kitchen. Great location. Short drive to Whole Foods and good restaurants. Quiet area. Ricky at the front desk is amazing!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r581557097-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>581557097</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Girl Trip</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn Marriott in Richardson, TX. Firstly I would like to say that Veronica at the front desk is amazing. She was so warm and helpful. She is very knowledgeable about things to do. She went above and beyond during my stay. Thank you Veronica for making my stay so wonderful. The hotel is very clean and comfortable. Our room was great and had everything we needed for our stay. Marriott Renaissance Inn is was a wonderful surprise and an enjoyable place to stay.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r581310478-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>581310478</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Stay@residence inn was great.</t>
+  </si>
+  <si>
+    <t>Stay at Residence Inn is very comfortable and home like. The Admin members are very helpful and available all the time specially Veronica, lovely and supportive lady.Evening snacks on Monday, tuesday and weds gives a nice opportunity to gel up with the fellow members.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r578165189-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>578165189</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Great stay I would recommend this place</t>
+  </si>
+  <si>
+    <t>My experience was awesome especially with the staff which was first class stay the individual atFront desk was name Veronica Love that had outstanding sevice.I go back this place stay and would recommend any.to stay here. David Horn</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r577744581-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>577744581</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Experience </t>
+  </si>
+  <si>
+    <t>I frequent Dallas for work and this is usually the hotel I choose to stay at. I always receive great service and recently I was assisted by Ricky at the front desk. He was very pleasant and really went above and beyond while assisting me with my check in. This is a prime location that is centrally located with easy access to highways. There is even a shuttle that will transport you to the mall. The rooms are always clean and well stocked with accommodating amenities. If you are looking for somewhere to stay that offers affordable rates and great hospitality from staff the Residence Inn at this location is for you. Thanks again! MoreShow less</t>
+  </si>
+  <si>
+    <t>I frequent Dallas for work and this is usually the hotel I choose to stay at. I always receive great service and recently I was assisted by Ricky at the front desk. He was very pleasant and really went above and beyond while assisting me with my check in. This is a prime location that is centrally located with easy access to highways. There is even a shuttle that will transport you to the mall. The rooms are always clean and well stocked with accommodating amenities. If you are looking for somewhere to stay that offers affordable rates and great hospitality from staff the Residence Inn at this location is for you. Thanks again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r576870882-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>576870882</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Great service!  Ricky and Veronica are the best! Very friendly and helpful.  The  entire staff is super nice. This is a great location and a  nice facility  Every morning we rrallt enjoyed the breakfast.  We will stay there again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r564332710-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>564332710</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Poor customer service -- would not recommend!!</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite Marriott member with over 500 night stays.  I booked a reservation via the Marriott website for an employee of mine that was travelling in from out of town and staying in Richardson.
+I requested (and submitted via FAX) the credit card authorization form for the stay.  I would assume that a Residence Inn receives many longer-term corporate stays -- they are the "extended stay" arm of the Marriott brand.
+I was first called and told that I needed to provide a front/back copy of my credit card and my drivers' license -- OBVIOUS fraudulent request that I would never do.  (and the bottom of their form clearly states NOT to do that)  When I called the team member out for requesting this, she stated that I was "arguing" with her and told me that I needed to speak with her manager.
+Her manager (after backpedaling on the request that her team member made) then proceeded to tell me that, due to fraud, they could not accept a personal credit card to secure a room and could only accept a corporate card.  She stated that this was the policy of the hotel GM.
+Issues with this whole situation (apart from the lack of caring customer service):
+1.  The card I was using was my Marriott Rewards card -- THEIR branded card.
+2.  The ONLY reason they knew it was a personal card is because I checked...I am a Platinum Elite Marriott member with over 500 night stays.  I booked a reservation via the Marriott website for an employee of mine that was travelling in from out of town and staying in Richardson.I requested (and submitted via FAX) the credit card authorization form for the stay.  I would assume that a Residence Inn receives many longer-term corporate stays -- they are the "extended stay" arm of the Marriott brand.I was first called and told that I needed to provide a front/back copy of my credit card and my drivers' license -- OBVIOUS fraudulent request that I would never do.  (and the bottom of their form clearly states NOT to do that)  When I called the team member out for requesting this, she stated that I was "arguing" with her and told me that I needed to speak with her manager.Her manager (after backpedaling on the request that her team member made) then proceeded to tell me that, due to fraud, they could not accept a personal credit card to secure a room and could only accept a corporate card.  She stated that this was the policy of the hotel GM.Issues with this whole situation (apart from the lack of caring customer service):1.  The card I was using was my Marriott Rewards card -- THEIR branded card.2.  The ONLY reason they knew it was a personal card is because I checked the box.  I could have easily checked the "Corporate" card box.3.  If fraud was the reason for their policy, her team members requesting copies of my cards and drivers' license sound a LOT more fraudulent than a Platinum member booking business travel.In short -- I do not recommend booking at this property.  Their business practices (and lack of customer service) are huge warning signs that they do not care about their guest.  I sure hope a owner reads this and corrects this soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite Marriott member with over 500 night stays.  I booked a reservation via the Marriott website for an employee of mine that was travelling in from out of town and staying in Richardson.
+I requested (and submitted via FAX) the credit card authorization form for the stay.  I would assume that a Residence Inn receives many longer-term corporate stays -- they are the "extended stay" arm of the Marriott brand.
+I was first called and told that I needed to provide a front/back copy of my credit card and my drivers' license -- OBVIOUS fraudulent request that I would never do.  (and the bottom of their form clearly states NOT to do that)  When I called the team member out for requesting this, she stated that I was "arguing" with her and told me that I needed to speak with her manager.
+Her manager (after backpedaling on the request that her team member made) then proceeded to tell me that, due to fraud, they could not accept a personal credit card to secure a room and could only accept a corporate card.  She stated that this was the policy of the hotel GM.
+Issues with this whole situation (apart from the lack of caring customer service):
+1.  The card I was using was my Marriott Rewards card -- THEIR branded card.
+2.  The ONLY reason they knew it was a personal card is because I checked...I am a Platinum Elite Marriott member with over 500 night stays.  I booked a reservation via the Marriott website for an employee of mine that was travelling in from out of town and staying in Richardson.I requested (and submitted via FAX) the credit card authorization form for the stay.  I would assume that a Residence Inn receives many longer-term corporate stays -- they are the "extended stay" arm of the Marriott brand.I was first called and told that I needed to provide a front/back copy of my credit card and my drivers' license -- OBVIOUS fraudulent request that I would never do.  (and the bottom of their form clearly states NOT to do that)  When I called the team member out for requesting this, she stated that I was "arguing" with her and told me that I needed to speak with her manager.Her manager (after backpedaling on the request that her team member made) then proceeded to tell me that, due to fraud, they could not accept a personal credit card to secure a room and could only accept a corporate card.  She stated that this was the policy of the hotel GM.Issues with this whole situation (apart from the lack of caring customer service):1.  The card I was using was my Marriott Rewards card -- THEIR branded card.2.  The ONLY reason they knew it was a personal card is because I checked the box.  I could have easily checked the "Corporate" card box.3.  If fraud was the reason for their policy, her team members requesting copies of my cards and drivers' license sound a LOT more fraudulent than a Platinum member booking business travel.In short -- I do not recommend booking at this property.  Their business practices (and lack of customer service) are huge warning signs that they do not care about their guest.  I sure hope a owner reads this and corrects this soon!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r558394509-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>558394509</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Great pet-friendly hotel</t>
+  </si>
+  <si>
+    <t>This was a great pet-friendly hotel, close enough to all the sites but not too crowded.  Was clean and staff was friendly.  Plenty of places to let our dog wander.  Breakfast was adequate, not great, but good.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r558274955-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>558274955</t>
+  </si>
+  <si>
+    <t>Best Hotel for the money ever!</t>
+  </si>
+  <si>
+    <t>2 bedroom suite was lovely -  Fireplace was warm and cozy - kitchen was well stocked and spotless.  The bed and bedding were extremely comfortable.  The entire suite and hotel were spotless, smelled fresh and very clean.  The breakfast was very good and had every food item imaginable for a quick breakfast.  As for location, easy to get onto major roads and into Dallas.We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r538758232-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>538758232</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Great Services and amenities</t>
+  </si>
+  <si>
+    <t>I recommend this hotel to anyone staying in the Richardson area.  The staff is very friendly and their service was great.The staff is always available and willing to go above and beyond with request. In addition the rooms are very clean and overall amenities are in great condition. Special thanks to Ricardo Roman, Chief Engineer &amp; Ana Molina, Housekeeper.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r538064391-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>538064391</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I had a really pleasant stay at this hotel last month. Customer service is awesome (especially Ricky at the front desk) and rooms are nice as well. I was in need of some last minute color printouts for my interview the next day and he was very patient in helping me out.Though this was my first stay there, I felt as if I was a long-timer at that hotel. The stay became even more memorable when I was offered the job I interviewed for.Thank you Ricky and the management there once again for your hospitality.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r533290699-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>533290699</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Good if you don't have pets</t>
+  </si>
+  <si>
+    <t>Brought my family here for a college football game and wanted to be away from a lot traffic. This was a nicely run establishment. I left the pets due to the $275 fee but not a deal breakerLocation was near other hotels right near to highways.Grounds were in good shapeRoom was a queen suite that was well equipped with full fridge.Wifi was solid for the children. Breakfast had solid options for hotel. Waffles eggs sausage cereals yogurts fruit etc. Good overall values thank you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r518430242-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>518430242</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent for Business Trips</t>
+  </si>
+  <si>
+    <t>I have stayed at the Residence Inn of Richardson several times this year and I'm always delighted for way the guests are treated. The people at the front desk (specially Vanessa, Ricky and Mirae) are always looking forward to help you. The Hotel also offers free breakfast, and swimming pool for guests.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r515195765-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>515195765</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>A Very Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Needed a place to stay that was close to UT Dallas, and had a two bedroom suite for our family. The Residence Inn Richardson was exactly what we were looking for. The location is off the freeway a bit, in sort of a corporate &amp; residential park area. We arrived late, having checked in online. When we arrived, they were expecting us, and even provided cold bottles of water for us to take back to the room with us. There were two separate bedrooms with full size beds, and a living room with a pull out couch bed. Both bedrooms had their own bathroom, which was very much appreciated. Room was clean and quiet; virtually no traffic or other noise to keep us up. (We were in room 327, on the third floor in back of building B.) On the first night, one of the kids was going to sleep on the couch; initially we opened out the sofa bed, but the mattress looked pretty dodgy and stained. We closed the sofa back up and just put the sheets on top of the sofa itself.  Property has a workout room, a pool, and a sports court (none of which we used this trip, but it's good to know they're there for future visits). I worked from the hotel room one day, and the WiFi was solid; we were also able to stream a Netflix movie that evening with no problems....Needed a place to stay that was close to UT Dallas, and had a two bedroom suite for our family. The Residence Inn Richardson was exactly what we were looking for. The location is off the freeway a bit, in sort of a corporate &amp; residential park area. We arrived late, having checked in online. When we arrived, they were expecting us, and even provided cold bottles of water for us to take back to the room with us. There were two separate bedrooms with full size beds, and a living room with a pull out couch bed. Both bedrooms had their own bathroom, which was very much appreciated. Room was clean and quiet; virtually no traffic or other noise to keep us up. (We were in room 327, on the third floor in back of building B.) On the first night, one of the kids was going to sleep on the couch; initially we opened out the sofa bed, but the mattress looked pretty dodgy and stained. We closed the sofa back up and just put the sheets on top of the sofa itself.  Property has a workout room, a pool, and a sports court (none of which we used this trip, but it's good to know they're there for future visits). I worked from the hotel room one day, and the WiFi was solid; we were also able to stream a Netflix movie that evening with no problems. Breakfast was surprisingly good, with a variety of hot and cold items. We had no issue finding gluten-free options.  The hotel also has a small snack shop (really just a few shelves near registration), but the items are quite overpriced; recommend bringing your own snacks rather than buying them on premises.  There are no eating establishments within walking distance, but there is a quaint little "market street" with a number of eating establishments about 5 minutes' drive south at Campbell Rd and Lakeside Blvd (the Twisted Root Burger Company is definitely worth a visit).  All in all a very pleasant stay; we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a place to stay that was close to UT Dallas, and had a two bedroom suite for our family. The Residence Inn Richardson was exactly what we were looking for. The location is off the freeway a bit, in sort of a corporate &amp; residential park area. We arrived late, having checked in online. When we arrived, they were expecting us, and even provided cold bottles of water for us to take back to the room with us. There were two separate bedrooms with full size beds, and a living room with a pull out couch bed. Both bedrooms had their own bathroom, which was very much appreciated. Room was clean and quiet; virtually no traffic or other noise to keep us up. (We were in room 327, on the third floor in back of building B.) On the first night, one of the kids was going to sleep on the couch; initially we opened out the sofa bed, but the mattress looked pretty dodgy and stained. We closed the sofa back up and just put the sheets on top of the sofa itself.  Property has a workout room, a pool, and a sports court (none of which we used this trip, but it's good to know they're there for future visits). I worked from the hotel room one day, and the WiFi was solid; we were also able to stream a Netflix movie that evening with no problems....Needed a place to stay that was close to UT Dallas, and had a two bedroom suite for our family. The Residence Inn Richardson was exactly what we were looking for. The location is off the freeway a bit, in sort of a corporate &amp; residential park area. We arrived late, having checked in online. When we arrived, they were expecting us, and even provided cold bottles of water for us to take back to the room with us. There were two separate bedrooms with full size beds, and a living room with a pull out couch bed. Both bedrooms had their own bathroom, which was very much appreciated. Room was clean and quiet; virtually no traffic or other noise to keep us up. (We were in room 327, on the third floor in back of building B.) On the first night, one of the kids was going to sleep on the couch; initially we opened out the sofa bed, but the mattress looked pretty dodgy and stained. We closed the sofa back up and just put the sheets on top of the sofa itself.  Property has a workout room, a pool, and a sports court (none of which we used this trip, but it's good to know they're there for future visits). I worked from the hotel room one day, and the WiFi was solid; we were also able to stream a Netflix movie that evening with no problems. Breakfast was surprisingly good, with a variety of hot and cold items. We had no issue finding gluten-free options.  The hotel also has a small snack shop (really just a few shelves near registration), but the items are quite overpriced; recommend bringing your own snacks rather than buying them on premises.  There are no eating establishments within walking distance, but there is a quaint little "market street" with a number of eating establishments about 5 minutes' drive south at Campbell Rd and Lakeside Blvd (the Twisted Root Burger Company is definitely worth a visit).  All in all a very pleasant stay; we would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r507505274-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>507505274</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>My husband, two kids, and I stayed at this hotel. We were in town for a family wedding. It was spacious and had everything we needed for a three day get away. The hotel was accommodating with a room block where other family members stayed but we were all in separate buildings. My feedback to the management is when there is a room block the rooms should be assigned closer together. This will help families with coordination.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r500455238-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>500455238</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Perfect for extended Stay</t>
+  </si>
+  <si>
+    <t>Ricky and his crew were very friendly, welcoming and accommodating.  My family and I stayed for a little over a week.  We had the two bedroom suite which was perfect.  We were able to take advantage of the breakfast that was available each morning and then for most lunches and dinners we were able to stay in with our own kitchen area.  There is a television in the living room as well as TV's in each bedroom.  You can opt to have cleaning service come everyday to make sure the suite is clean.  I would recommend this place.  It isn't posh, but it is nice, definitely clean, spacious, welcoming and perfect for extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Ricky and his crew were very friendly, welcoming and accommodating.  My family and I stayed for a little over a week.  We had the two bedroom suite which was perfect.  We were able to take advantage of the breakfast that was available each morning and then for most lunches and dinners we were able to stay in with our own kitchen area.  There is a television in the living room as well as TV's in each bedroom.  You can opt to have cleaning service come everyday to make sure the suite is clean.  I would recommend this place.  It isn't posh, but it is nice, definitely clean, spacious, welcoming and perfect for extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r500361009-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>500361009</t>
+  </si>
+  <si>
+    <t>One Really Bad Apple</t>
+  </si>
+  <si>
+    <t>My husband and I travel for business 80% of the time, so I consider myself a bit knowledgeable about good and bad hotel stays.  I’m not extremely picky but I won’t stay in a dump either.
+Let me start with the good.  Although very dated, this hotel has been upgraded in some areas and is comfortable.  The majority of the staff members are professional, helpful and very nice people, from front desk to maintenance to housekeeping.  They gave a very welcome feel to the hotel.  There’s a nice barbeque grill and the breakfast buffet, although I did not partake, looked very good.  Standard Residence Inn-type food complete with waffle maker, etc.  They also have their typical social hour Monday thru Wednesday, complete with beer and wine, etc.  The full kitchen is useful for us as is the laundry, which we were unable to use because we left so abruptly.
+The bad and the ugly.  Because the hotel is so dated, it smells dated.  Hallways in Building A (which is where we stayed) and our room had a very moldy, wet smell.  I remedied this by cleaning my own hotel room (which I always do) and burning incense.  Our microwave died the second day we were there, but the awesome maintenance guy (Ricardo) replaced it right away.  The bathtub fixtures are rusty looking and the coffee pot has seen better days.  I’m sure if I had asked them to replace the...My husband and I travel for business 80% of the time, so I consider myself a bit knowledgeable about good and bad hotel stays.  I’m not extremely picky but I won’t stay in a dump either.Let me start with the good.  Although very dated, this hotel has been upgraded in some areas and is comfortable.  The majority of the staff members are professional, helpful and very nice people, from front desk to maintenance to housekeeping.  They gave a very welcome feel to the hotel.  There’s a nice barbeque grill and the breakfast buffet, although I did not partake, looked very good.  Standard Residence Inn-type food complete with waffle maker, etc.  They also have their typical social hour Monday thru Wednesday, complete with beer and wine, etc.  The full kitchen is useful for us as is the laundry, which we were unable to use because we left so abruptly.The bad and the ugly.  Because the hotel is so dated, it smells dated.  Hallways in Building A (which is where we stayed) and our room had a very moldy, wet smell.  I remedied this by cleaning my own hotel room (which I always do) and burning incense.  Our microwave died the second day we were there, but the awesome maintenance guy (Ricardo) replaced it right away.  The bathtub fixtures are rusty looking and the coffee pot has seen better days.  I’m sure if I had asked them to replace the coffee pot in the room, they would have done it because, as I stated previously, most of the staff members are very helpful.  The carpet always felt moist as did the tile floors in the kitchen and bathroom.  Very clammy!  After walking around before getting into the shower, my feet were filthy from the floors as was apparent by the brownish water near the drain when I got into the shower.  ICK!  The elevator was so dated I was almost afraid to use it the couple of times that I did.  However, I was willing to tolerate these small flaws for three weeks because it was livable and most of the staff members here are very nice.The worst part of staying here and the reason for my poor review is all because of the last night we were there.  We had originally booked the hotel for about three weeks but left after the fourth night.  On Saturday night, apparently there was a wedding party staying and partying at the hotel.  Our room overlooked the basketball court (another pain – Thunk!  Thunk!  Thunk! All day long) and was close to the pool area.  There were about twenty people at the pool, laughing and talking very loud that Saturday night.  It was 11:00pm when I asked my husband to call the front desk to see what time the pool closes.  My husband and I are early risers and I am a much nicer person when I can get a decent night’s sleep.  The woman at the front desk answered and when my husband asked about the pool hours, she stated they had already sent someone out there to clear the party because the pool closes at 11:00.Fifteen minutes later, the sounds of loud conversation and laughing had not died down so my husband called the front desk a second time.  The woman advised my husband that they were doing a shift change and that they would remedy the situation as soon as they could.  They were working on it.  By 11:30, I called the front desk and an extremely unhappy-sounding woman answered the phone.  I asked her when they were going to clear the people from the pool area and she stated, in a very stern and frustrated voice, “we told them they could stay if they were quiet, ma’am.”  I firmly told the woman, “They are NOT quiet!”  She said "We are working on clearing the people from the pool area, ma’am” and I said, “For half an hour?”  I advised her that this was unacceptable and that they needed to clear the area or move us to another room.  She said they could move us to another room.  My husband said that was unacceptable because it was 11:30 at night and we have three weeks’ worth of clothing and food in our room.  The point of clearing out the noisy people was to get some sleep.  Moving would have taken a while!  The whole time, this woman kept referring to me, rather sternly, as MA’AM!  I realized I was fighting a losing battle, so I hung up on her.  I remembered reading another guest’s review about Room 102.  Same complaints about noisy guests.  I usually try to give places the benefit of the doubt and experience things for myself.  This time I was wrong and should have heeded the other reviewer’s advice.Shortly after I hung up, we saw a rather robust woman entering the pool area.  At that point, all of the guests cleared the area.  My guess is that this is the woman who I just hung up on.  I’m thinking she is much better suited in a position at the pool during closing, barking at guests to leave than answering the telephone at the front desk.  Not a people person . . . at all!  Minutes later, a young girl decided to lie down on the basketball court and have a loud cell phone conversation with someone.  My husband opened the window and asked her to leave.  She did.  I told my husband we needed to leave the hotel as soon as possible.The next morning, after securing a room at another hotel, the front desk called and asked if we were actually checking out that day.  I told the VERY nice lady on the phone that we were because we had a terrible night there.  She apologized and said they had a care package for us and to stop by the front desk because her supervisor wanted to speak to us.  We stopped by the front desk and talked to the supervisor.  She apologized for the rude employee the night before and said that she would address the issue with her.  Then she said that the employee left a care package for us.  The supervisor explained that there wasn’t much they could do about the noisy guests, short of calling the police.  I understand that and actually thought about calling the police myself.  We looked at the care package and both my husband and I knew that it would be highly uncharacteristic of the "person" we spoke to the night before to make such a sweet gesture.  I’m sure the package came from the hotel supervisor as it included some extra Marriott points.  It was a very nice gesture, but still doesn't make up for my lack of sleep nor the rudeness of the late-night employee.All-in-all this would be a decent hotel and it is if you don’t mind or actually love the party scene.  Apparently, unless they send the angry night-shift lady out to chase partiers away or call the police, there’s not much the hotel can do for guests who would like a decent night’s sleep.My advice?  Pay attention to some of the bad reviews as history will repeat itself.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I travel for business 80% of the time, so I consider myself a bit knowledgeable about good and bad hotel stays.  I’m not extremely picky but I won’t stay in a dump either.
+Let me start with the good.  Although very dated, this hotel has been upgraded in some areas and is comfortable.  The majority of the staff members are professional, helpful and very nice people, from front desk to maintenance to housekeeping.  They gave a very welcome feel to the hotel.  There’s a nice barbeque grill and the breakfast buffet, although I did not partake, looked very good.  Standard Residence Inn-type food complete with waffle maker, etc.  They also have their typical social hour Monday thru Wednesday, complete with beer and wine, etc.  The full kitchen is useful for us as is the laundry, which we were unable to use because we left so abruptly.
+The bad and the ugly.  Because the hotel is so dated, it smells dated.  Hallways in Building A (which is where we stayed) and our room had a very moldy, wet smell.  I remedied this by cleaning my own hotel room (which I always do) and burning incense.  Our microwave died the second day we were there, but the awesome maintenance guy (Ricardo) replaced it right away.  The bathtub fixtures are rusty looking and the coffee pot has seen better days.  I’m sure if I had asked them to replace the...My husband and I travel for business 80% of the time, so I consider myself a bit knowledgeable about good and bad hotel stays.  I’m not extremely picky but I won’t stay in a dump either.Let me start with the good.  Although very dated, this hotel has been upgraded in some areas and is comfortable.  The majority of the staff members are professional, helpful and very nice people, from front desk to maintenance to housekeeping.  They gave a very welcome feel to the hotel.  There’s a nice barbeque grill and the breakfast buffet, although I did not partake, looked very good.  Standard Residence Inn-type food complete with waffle maker, etc.  They also have their typical social hour Monday thru Wednesday, complete with beer and wine, etc.  The full kitchen is useful for us as is the laundry, which we were unable to use because we left so abruptly.The bad and the ugly.  Because the hotel is so dated, it smells dated.  Hallways in Building A (which is where we stayed) and our room had a very moldy, wet smell.  I remedied this by cleaning my own hotel room (which I always do) and burning incense.  Our microwave died the second day we were there, but the awesome maintenance guy (Ricardo) replaced it right away.  The bathtub fixtures are rusty looking and the coffee pot has seen better days.  I’m sure if I had asked them to replace the coffee pot in the room, they would have done it because, as I stated previously, most of the staff members are very helpful.  The carpet always felt moist as did the tile floors in the kitchen and bathroom.  Very clammy!  After walking around before getting into the shower, my feet were filthy from the floors as was apparent by the brownish water near the drain when I got into the shower.  ICK!  The elevator was so dated I was almost afraid to use it the couple of times that I did.  However, I was willing to tolerate these small flaws for three weeks because it was livable and most of the staff members here are very nice.The worst part of staying here and the reason for my poor review is all because of the last night we were there.  We had originally booked the hotel for about three weeks but left after the fourth night.  On Saturday night, apparently there was a wedding party staying and partying at the hotel.  Our room overlooked the basketball court (another pain – Thunk!  Thunk!  Thunk! All day long) and was close to the pool area.  There were about twenty people at the pool, laughing and talking very loud that Saturday night.  It was 11:00pm when I asked my husband to call the front desk to see what time the pool closes.  My husband and I are early risers and I am a much nicer person when I can get a decent night’s sleep.  The woman at the front desk answered and when my husband asked about the pool hours, she stated they had already sent someone out there to clear the party because the pool closes at 11:00.Fifteen minutes later, the sounds of loud conversation and laughing had not died down so my husband called the front desk a second time.  The woman advised my husband that they were doing a shift change and that they would remedy the situation as soon as they could.  They were working on it.  By 11:30, I called the front desk and an extremely unhappy-sounding woman answered the phone.  I asked her when they were going to clear the people from the pool area and she stated, in a very stern and frustrated voice, “we told them they could stay if they were quiet, ma’am.”  I firmly told the woman, “They are NOT quiet!”  She said "We are working on clearing the people from the pool area, ma’am” and I said, “For half an hour?”  I advised her that this was unacceptable and that they needed to clear the area or move us to another room.  She said they could move us to another room.  My husband said that was unacceptable because it was 11:30 at night and we have three weeks’ worth of clothing and food in our room.  The point of clearing out the noisy people was to get some sleep.  Moving would have taken a while!  The whole time, this woman kept referring to me, rather sternly, as MA’AM!  I realized I was fighting a losing battle, so I hung up on her.  I remembered reading another guest’s review about Room 102.  Same complaints about noisy guests.  I usually try to give places the benefit of the doubt and experience things for myself.  This time I was wrong and should have heeded the other reviewer’s advice.Shortly after I hung up, we saw a rather robust woman entering the pool area.  At that point, all of the guests cleared the area.  My guess is that this is the woman who I just hung up on.  I’m thinking she is much better suited in a position at the pool during closing, barking at guests to leave than answering the telephone at the front desk.  Not a people person . . . at all!  Minutes later, a young girl decided to lie down on the basketball court and have a loud cell phone conversation with someone.  My husband opened the window and asked her to leave.  She did.  I told my husband we needed to leave the hotel as soon as possible.The next morning, after securing a room at another hotel, the front desk called and asked if we were actually checking out that day.  I told the VERY nice lady on the phone that we were because we had a terrible night there.  She apologized and said they had a care package for us and to stop by the front desk because her supervisor wanted to speak to us.  We stopped by the front desk and talked to the supervisor.  She apologized for the rude employee the night before and said that she would address the issue with her.  Then she said that the employee left a care package for us.  The supervisor explained that there wasn’t much they could do about the noisy guests, short of calling the police.  I understand that and actually thought about calling the police myself.  We looked at the care package and both my husband and I knew that it would be highly uncharacteristic of the "person" we spoke to the night before to make such a sweet gesture.  I’m sure the package came from the hotel supervisor as it included some extra Marriott points.  It was a very nice gesture, but still doesn't make up for my lack of sleep nor the rudeness of the late-night employee.All-in-all this would be a decent hotel and it is if you don’t mind or actually love the party scene.  Apparently, unless they send the angry night-shift lady out to chase partiers away or call the police, there’s not much the hotel can do for guests who would like a decent night’s sleep.My advice?  Pay attention to some of the bad reviews as history will repeat itself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r498357506-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>498357506</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel stay was awesome, clean room every time. Front desk service was amazing, Ricky started a fan club for me. Nice breakfast in the mornings, as well as options at night on Mon, Tues and Wed. Overall excellent stay, if I travel to the Dallas area again I would definitely stay here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r495473113-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>495473113</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Another wonderful stay</t>
+  </si>
+  <si>
+    <t>The staff make this hotel great.   My friend Ricky from the nearby Courtyard is not at the desk. Shuttle captain and do it all Laila.  Don't forget Nolan and the others.   The special pillow with our company logo was very thoughtful.  Nice touch.   The breakfast is always ready by 6:30am and dinner drinks and snacks are another nice perk.  Rooms are large and well appointed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r494420588-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>494420588</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Feels like home!</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times over the last 6 years for 5-7 nights each time and being here always feels like being home! Great staff in all areas of hotel always ready to help, the hotel's general areas are always clean, feel safe, breakfast always has a lot of choices, pool and pool area clean, workout room nice...... can you tell I use every area of this hotel.  I had not been here for two years and when I arrived I was treated like family coming home after a long trip!  Pricilla, the GM did everything she could to get me into my room early and into a room I have stayed in many times!  The amazing thing is the room was the same as two years earlier, no wear and tear, clean and fresh!  I truely enjoy being at this hotel and that says a lot since I stay an average of 70 nights a year in hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times over the last 6 years for 5-7 nights each time and being here always feels like being home! Great staff in all areas of hotel always ready to help, the hotel's general areas are always clean, feel safe, breakfast always has a lot of choices, pool and pool area clean, workout room nice...... can you tell I use every area of this hotel.  I had not been here for two years and when I arrived I was treated like family coming home after a long trip!  Pricilla, the GM did everything she could to get me into my room early and into a room I have stayed in many times!  The amazing thing is the room was the same as two years earlier, no wear and tear, clean and fresh!  I truely enjoy being at this hotel and that says a lot since I stay an average of 70 nights a year in hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r494115610-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>494115610</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, Kind and Quiet </t>
+  </si>
+  <si>
+    <t>I like Residence Inn because it feels like home instead of hotel.And this hotel was nice and clean as I would expect my home to be.All of staffs were very kind.Specially Ricky greeted me with smile and help me to check in and Nolan helped me to locate my belongings I left behind.The room I stayed had a door between living room and bedroom which made me feel like staying in one bedroom condo instead of studio.It is nice and I would be back again when I am in Richardson or Plano area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r486441165-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>486441165</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Wildflower Festival Visit Richardson!</t>
+  </si>
+  <si>
+    <t>The Residence Inn in Richardson on Waterwood Drive is the best walking location to Wildflower Music &amp; Arts Festival of Richardson.The staff are outstanding especially - Vanessa Knight. Much Thanks for making our weekend so comfortable.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r486038190-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>486038190</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Typical Good Residence Inn</t>
+  </si>
+  <si>
+    <t>I generally like Residence Inn hotels and this was typical.  Good breakfast as usual. Room was clean. I was here for a brief business trip actually May but couldn't select this as a drop down, catching up on all my trips!  I brought a family member with me and so the room size and hotel location was perfect. Front desk was helpful in finding dinner place to eat.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r480980985-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>480980985</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Nice Place to feel at home :)</t>
+  </si>
+  <si>
+    <t>So, I came here two months ago, and I am still impressed about the quality of service that they give.I always believed that you can have the best product, but if you do not have the best service, it will never work.Here you have everything complete: product and service.They have breakfast every day, and three times a week a snack time at night with live music. There's a shuttle to the city in case that you need.The clean service can be requested daily, and I must say how good the employees are.Always with the smile on their face, friendly, nice and very competent.I would like to emphasize a special thanks to Juliana, Delia and Ricardo who always treat me so nice  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>So, I came here two months ago, and I am still impressed about the quality of service that they give.I always believed that you can have the best product, but if you do not have the best service, it will never work.Here you have everything complete: product and service.They have breakfast every day, and three times a week a snack time at night with live music. There's a shuttle to the city in case that you need.The clean service can be requested daily, and I must say how good the employees are.Always with the smile on their face, friendly, nice and very competent.I would like to emphasize a special thanks to Juliana, Delia and Ricardo who always treat me so nice  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r471750993-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>471750993</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Great Service from Shelly</t>
+  </si>
+  <si>
+    <t>I stay at this hotel every time I am in town. I always get great service. Shelly who works the front desk went above and beyond for me last time I stayed. She always attends to my needs and that is why I come back. Thank you Shelly for always making my stay enjoyable.Rich</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r469241661-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>469241661</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Great hospitalitu</t>
+  </si>
+  <si>
+    <t>I've stayed at a couple other Residence Inn properties in the past. This one has by far the best hospitality I've encountered. Breakfast was a little better, housekeeping left little treats, and the happy hour had live entertainment and a full meal for guests. There were lots of nice outdoor seating f areas with heaters and/or fire pits. The property accommodated our request for a late checkout. I'd love to give 4.5 stars. The only reason I didn't give 5 stars was the pullout sofa needed a new mattress.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r457607390-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>457607390</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Worst stay ever</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights.
+I got room 120.
+The min I checked in I asked to move a room since the room is facing the main patio area.
+I was told the hotel is full and they can't move me today but only the next day.
+I decided to give this a chance - what a mistake!!!
+A group of people sat outside my windows drinking beer and smoking until almost mid-night.
+Hardly got any sleep.
+The next day I packaged ready to move a room but the front office told me the room will only be available after 2pm.
+I told them I can move now or after 6pm. They said No, we need your room clear since we have guests coming in so you need to be here at 2pm to move your things.
+I explained again that I can't but they didn't care.
+That evening again a group was outside my window until 11pm, drinking, smoking and making noise. 
+The next day I asked again if I can move a room but was told the hotel is fully booked.
+I was really expecting much better experience from this hotel.  
+Next time I will stay at the Hyatt down the street or the Courtyard next door.
+Will never come back to this hotel.
+If for some reason you end up at this hotel, avoid room 120 at any cost. You will not be able to open...I stayed here for 5 nights.I got room 120.The min I checked in I asked to move a room since the room is facing the main patio area.I was told the hotel is full and they can't move me today but only the next day.I decided to give this a chance - what a mistake!!!A group of people sat outside my windows drinking beer and smoking until almost mid-night.Hardly got any sleep.The next day I packaged ready to move a room but the front office told me the room will only be available after 2pm.I told them I can move now or after 6pm. They said No, we need your room clear since we have guests coming in so you need to be here at 2pm to move your things.I explained again that I can't but they didn't care.That evening again a group was outside my window until 11pm, drinking, smoking and making noise. The next day I asked again if I can move a room but was told the hotel is fully booked.I was really expecting much better experience from this hotel.  Next time I will stay at the Hyatt down the street or the Courtyard next door.Will never come back to this hotel.If for some reason you end up at this hotel, avoid room 120 at any cost. You will not be able to open the blinds, the windows or sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights.
+I got room 120.
+The min I checked in I asked to move a room since the room is facing the main patio area.
+I was told the hotel is full and they can't move me today but only the next day.
+I decided to give this a chance - what a mistake!!!
+A group of people sat outside my windows drinking beer and smoking until almost mid-night.
+Hardly got any sleep.
+The next day I packaged ready to move a room but the front office told me the room will only be available after 2pm.
+I told them I can move now or after 6pm. They said No, we need your room clear since we have guests coming in so you need to be here at 2pm to move your things.
+I explained again that I can't but they didn't care.
+That evening again a group was outside my window until 11pm, drinking, smoking and making noise. 
+The next day I asked again if I can move a room but was told the hotel is fully booked.
+I was really expecting much better experience from this hotel.  
+Next time I will stay at the Hyatt down the street or the Courtyard next door.
+Will never come back to this hotel.
+If for some reason you end up at this hotel, avoid room 120 at any cost. You will not be able to open...I stayed here for 5 nights.I got room 120.The min I checked in I asked to move a room since the room is facing the main patio area.I was told the hotel is full and they can't move me today but only the next day.I decided to give this a chance - what a mistake!!!A group of people sat outside my windows drinking beer and smoking until almost mid-night.Hardly got any sleep.The next day I packaged ready to move a room but the front office told me the room will only be available after 2pm.I told them I can move now or after 6pm. They said No, we need your room clear since we have guests coming in so you need to be here at 2pm to move your things.I explained again that I can't but they didn't care.That evening again a group was outside my window until 11pm, drinking, smoking and making noise. The next day I asked again if I can move a room but was told the hotel is fully booked.I was really expecting much better experience from this hotel.  Next time I will stay at the Hyatt down the street or the Courtyard next door.Will never come back to this hotel.If for some reason you end up at this hotel, avoid room 120 at any cost. You will not be able to open the blinds, the windows or sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r423373011-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>423373011</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>If you appreciate being aboard a tight ship with a superior and polite staff this is the place to stay!</t>
+  </si>
+  <si>
+    <t>Lisa and her crew make an extra effort to be sure you are treated well.They are all very helpful, energetic, and professional when it comes to providing each of their guests with outstanding service.Waz,The Closer</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r423362339-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>423362339</t>
+  </si>
+  <si>
+    <t>Excellent Service!</t>
+  </si>
+  <si>
+    <t>Our huese got water damaged  on August, My waif and I have to stayed in here since then, all staff here are very nice and friendly to us, especially big THANKS to Lisa Sorrels, she took extra effort to deal with temporary house service for us, always friendly and helpful and treat  us like family  members.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r421278571-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>421278571</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Working in richardson and stayed at the residence inn richardson</t>
+  </si>
+  <si>
+    <t>I was in the area on a long time project . I have stayed here before but would absolutely recommend this hotel for anyone staying in the area. The front desk staff are always there for you one employee was just above and beyond to help you or get you anything you need Lisa Sorrels. She goes above and beyond customer service amazing employee all the front desk and the van driver Laila is so helpful to. Also maria in the kitchen and marta housekeeping are pretty amazing as well. Very pleasant stay.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r405358944-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>405358944</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>value for money for family extended stay and very friendly staff.</t>
+  </si>
+  <si>
+    <t>I am enjoying my stay at the Richardson Residence Inn. We have been very impressed with the friendly and very hard working staff. Vanessa provided professional service upon my check-in. Her can do attitude was much appreciated. The entire front desk team: Lisa, Linda, Sylvia, Kristie and Laila are top notch professionals, friendly and helpful.. Additionally, Ricardo provides great maintenance care and the housekeeping staff is superb! Kudos to this team.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r403877896-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>403877896</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Falsely Accused of Taking a Bottle of Wine</t>
+  </si>
+  <si>
+    <t>My family and I are staying at this hotel.The stay has been pleasant from the beginning June 20th until today, August 10th.  My daughter's and I were dining at the evening social and I was approached by Liz or Lisa one of the emaployees here.  She'd asked me if I'd taken a bottle of wine to bring back up to my room.  I was shocked, highly offended, extremedy embarrassed and thoroughly insulted by this accusation. I'd advised her, no that my GLASS of wine was on the table and pointed to it to prove my case.  I'd also advised her that the wine bottle was in the trash and she looked in the trash to confirm that I was being truthful.  She then informed the employee working the social that I'd only had a glass of wine and didn't take the bottle.I am a Marriot silver rewards member and is on track to become gold within a few weeks.  I'd even reserved a room in a California Residence Inn for our family vacation.  I'm second guessing that decision based on the disrespect that I'd encountered this evening.I stop short of saying that I was being racially profiled, however I was the only woman of color drinking Cabernet.  I'm offended and appalled of this treatment and felt compelled to share my experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded August 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2016</t>
+  </si>
+  <si>
+    <t>My family and I are staying at this hotel.The stay has been pleasant from the beginning June 20th until today, August 10th.  My daughter's and I were dining at the evening social and I was approached by Liz or Lisa one of the emaployees here.  She'd asked me if I'd taken a bottle of wine to bring back up to my room.  I was shocked, highly offended, extremedy embarrassed and thoroughly insulted by this accusation. I'd advised her, no that my GLASS of wine was on the table and pointed to it to prove my case.  I'd also advised her that the wine bottle was in the trash and she looked in the trash to confirm that I was being truthful.  She then informed the employee working the social that I'd only had a glass of wine and didn't take the bottle.I am a Marriot silver rewards member and is on track to become gold within a few weeks.  I'd even reserved a room in a California Residence Inn for our family vacation.  I'm second guessing that decision based on the disrespect that I'd encountered this evening.I stop short of saying that I was being racially profiled, however I was the only woman of color drinking Cabernet.  I'm offended and appalled of this treatment and felt compelled to share my experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r398853136-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>398853136</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>Our family has had a long term stay at this Residence Inn.The rooms are clean and spacious.  We have been very impressed with the friendly and very hard working staff.   Lisa Sorrells and her front desk staff,  Johanna, Laila, Linda, Sylvia, Vanessa,  and Tyler  are always professional, and very friendly.  We have also been very impressed with the maintenance, Ricardo,  who is always there with a smile and kind word to attend to anything needed. Joemel, Maria Sanchez, and Delia, in the Café, and even our housekeepers Delia, and Julianna.  The staff is really what makes this Marriott location so great!  They work hard to make each guest's stay pleasant.  We would definitely recommend This location to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Our family has had a long term stay at this Residence Inn.The rooms are clean and spacious.  We have been very impressed with the friendly and very hard working staff.   Lisa Sorrells and her front desk staff,  Johanna, Laila, Linda, Sylvia, Vanessa,  and Tyler  are always professional, and very friendly.  We have also been very impressed with the maintenance, Ricardo,  who is always there with a smile and kind word to attend to anything needed. Joemel, Maria Sanchez, and Delia, in the Café, and even our housekeepers Delia, and Julianna.  The staff is really what makes this Marriott location so great!  They work hard to make each guest's stay pleasant.  We would definitely recommend This location to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r391212267-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>391212267</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>The room was great! Very clean. Bathroom very spacious and very clean. Dishes were provided in the cabinets. Couch bed was a little lumpy but not terrible. It was definitely convenient. We wished for a rollaway bed but they didn't have any. Staff was very responsive when we asked for extra blankets. Pool was wonderful. We were able to float for hours and were not disturbed for the most part. I would definitely stay here again. Also, the breakfast was amazing! It was a full array of options.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r390877250-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>390877250</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Pre cruise stay</t>
+  </si>
+  <si>
+    <t>Stopped here to stay the night and could not have been happier.  Staff was all very helpful and friendly.   Couple stains on the carpet and one of the showers smelled moldy (it was clean and no mold), and the kitchen drawers were sticky, didn't like to open/close very easy.  The windows didn't seem to want to open either.  All kind of nitpick you.  The grounds were very nice and there is a Starbucks in the Courtyard next door.  Location was right off the highway and easy to get to.  The only negative I have to say is they was only a dresser in one of the two bedrooms.  We only stayed one night so it didn't really bother us, but if it was a longer stay, it would be nice to unpack.  Would definitely stay again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Stopped here to stay the night and could not have been happier.  Staff was all very helpful and friendly.   Couple stains on the carpet and one of the showers smelled moldy (it was clean and no mold), and the kitchen drawers were sticky, didn't like to open/close very easy.  The windows didn't seem to want to open either.  All kind of nitpick you.  The grounds were very nice and there is a Starbucks in the Courtyard next door.  Location was right off the highway and easy to get to.  The only negative I have to say is they was only a dresser in one of the two bedrooms.  We only stayed one night so it didn't really bother us, but if it was a longer stay, it would be nice to unpack.  Would definitely stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r382324407-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>382324407</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Great Location and Good Service</t>
+  </si>
+  <si>
+    <t>This hotel is showing its age.  The widows in my room opened but did not stay opened and the window sash, which was made of plastic, was chipping away.  The breakfast area is one of the smaller breakfast areas and was always full for breakfast and dinner hour.  I had an issue with being able to turn on the light on the night stand.  Turns out that the switch on the wall was turned off and that controlled the lamp on the night stand and the outlets.  The service was average.  Everyone was friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r371852993-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>371852993</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>90 Day Stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn for just over 90 days, and could not have been more comfortable; everyone on staff were a wonderful,and friendly.  I would stay again if back in the area. Thank you, especially, Lois.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn for just over 90 days, and could not have been more comfortable; everyone on staff were a wonderful,and friendly.  I would stay again if back in the area. Thank you, especially, Lois.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r364096676-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>364096676</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent Service and Location</t>
+  </si>
+  <si>
+    <t>My husband and I were at the hotel from early December 2015 to late March 2016 along with other co-workers while working in the area. Great location within walking distance of several offices and reasonably close to the airport. While we were there, all of the employees were helpful and courteous, and we felt like we were at a "second home". I would definitely book at this hotel again if in the area. Great breakfast with a smile, with overall outstanding service and staff going out of their way to assist you while away from home.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r363563304-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>363563304</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Away From Home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriot is marvellous here. Nice accommodation in the heart of Richardson in Dallas. About half an hour drive from Airport and Downtown. We had suit no 216 with two bedrooms and a living room. The reception extended  a comfortable check in even at  3 a m in the morning.  Breakfast is free but fine. Limited spread but all items from boiled eggs to biscuits and sauce were excellent  ! All amenities like pool and free WiFi provided. Courteous service including self check out facility is worth mentioning. Yeah Marriot serves you well in this calm place away from the maddening crowd. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r350797041-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>350797041</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Great place away from home</t>
+  </si>
+  <si>
+    <t>Very friendly staff, nice and clean environment with kitchen facilities. Great location with all amenities nearby , this is my preferred hotel that I have stayed for a major part of my visits to the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Very friendly staff, nice and clean environment with kitchen facilities. Great location with all amenities nearby , this is my preferred hotel that I have stayed for a major part of my visits to the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r346582893-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>346582893</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>10+ Years</t>
+  </si>
+  <si>
+    <t>My family and I have been staying at this hotel for more than 10 years. We love it! The staff throughout the years have been kind and the breakfast is awesome! We're never disappointed, it truly is like a home away from home for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I have been staying at this hotel for more than 10 years. We love it! The staff throughout the years have been kind and the breakfast is awesome! We're never disappointed, it truly is like a home away from home for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r330943366-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>330943366</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Dogs Barking, stepped in Poo in My Room</t>
+  </si>
+  <si>
+    <t>Have to say this one is definitely below standard here.  We came in for a big conference and work session and many of the 30 of us who are Platinumm members were amlittle disappointed.  Dogs barking in he middle of the night, stepping in dog poop in a recently cleaned room (seriously how do you miss that) to no coffe in our rooms, to no silverware at meals.Wow probably wont be staying here again.  A loss of 30 Platinum members for a month......MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded December 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2015</t>
+  </si>
+  <si>
+    <t>Have to say this one is definitely below standard here.  We came in for a big conference and work session and many of the 30 of us who are Platinumm members were amlittle disappointed.  Dogs barking in he middle of the night, stepping in dog poop in a recently cleaned room (seriously how do you miss that) to no coffe in our rooms, to no silverware at meals.Wow probably wont be staying here again.  A loss of 30 Platinum members for a month......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r317821752-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>317821752</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Residence Inn Richardson Dallas</t>
+  </si>
+  <si>
+    <t>The Residence Inn in Richardson Dallas TX is a very nice hotel. Staff were all very friendly. Clean and smelled good. Breakfast was very good. The grounds are very clean too. Thought the rooms were spacious. Our bed was a little more firm then we preferred but it was in great shape at least. Each room has its own air conditioner so it was wonderful to get the temperature as low as you wanted in the room. We had ours down on 64. It was perfect. Fridge, stove, dishwasher, sofa, TV in living room and bedroom. Easy to get to. Would recommend for the week end or an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Residence Inn in Richardson Dallas TX is a very nice hotel. Staff were all very friendly. Clean and smelled good. Breakfast was very good. The grounds are very clean too. Thought the rooms were spacious. Our bed was a little more firm then we preferred but it was in great shape at least. Each room has its own air conditioner so it was wonderful to get the temperature as low as you wanted in the room. We had ours down on 64. It was perfect. Fridge, stove, dishwasher, sofa, TV in living room and bedroom. Easy to get to. Would recommend for the week end or an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r317265360-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>317265360</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>Me and my colleague booked for a 2 bedroom suite in Residence Inn and we were greeted by Linda at the front desk. Check in was so easy and fast. Breakfast area is accessible and staff were friendly and very accomodating. Our room is pretty big with a kitchennette and living room area. The only complaint I have is that the carpets and bed sheets are not clean as I was getting allergy everytime we go back to the hotel. And the kitchen utensils and plates in the kitchenette were not thoroughly cleaned. Overall it was a pleasant stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r311283269-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>311283269</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Great hotel and amazing staff!!</t>
+  </si>
+  <si>
+    <t>From the reservation to the actual stay the staff was amazing!  They were so nice and helpful.  The hotel was clean and very roomy.  Was well worth the price.  I would definitely stay there if in the Richardson area again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>From the reservation to the actual stay the staff was amazing!  They were so nice and helpful.  The hotel was clean and very roomy.  Was well worth the price.  I would definitely stay there if in the Richardson area again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r273182394-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>273182394</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Convenient to Wildflower Fest and Telecom Park</t>
+  </si>
+  <si>
+    <t>We had a nice suite with a Queen bed and full kitchen. The breakfast buffet had enough variety and was OK. This is a decent hotel, but parking was an issue on Sat night due to the Festival. When I went to the front desk to ask if they had any options, they didn't. Guess they expected me to drive around until something opened up. Finally parked in back of the adjacent Marriott Courtyard. I called back to the front desk to let them know there were more spaces near where I parked. They said "Oh no you can't do that, you might get towed". I requested that they please call the courtyard to ask if it was OK. After all they are both Marriott properties! But for some reason, they didn't want to call. I took my chances and my car was there the next morning. WiFi worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We had a nice suite with a Queen bed and full kitchen. The breakfast buffet had enough variety and was OK. This is a decent hotel, but parking was an issue on Sat night due to the Festival. When I went to the front desk to ask if they had any options, they didn't. Guess they expected me to drive around until something opened up. Finally parked in back of the adjacent Marriott Courtyard. I called back to the front desk to let them know there were more spaces near where I parked. They said "Oh no you can't do that, you might get towed". I requested that they please call the courtyard to ask if it was OK. After all they are both Marriott properties! But for some reason, they didn't want to call. I took my chances and my car was there the next morning. WiFi worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r266358862-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>266358862</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>This is an older but well kept facility in an excellent location to the freeways and food.</t>
+  </si>
+  <si>
+    <t>stayed in a two bedroom with my mother on a visit to see her family in the Dallas area.This is an older but well kept facility in an excellent location to the freeways and food.  This would be a good place for an extendesd stay as it is not in a noisy location yet handy to the freeway. Food isn't walkable but just a short drive,When requested, staff quickly fixed a sticky iron and balky tv.Breakfast busy and well run.  Coffee always good.  Didn't eat eveneing meal here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>stayed in a two bedroom with my mother on a visit to see her family in the Dallas area.This is an older but well kept facility in an excellent location to the freeways and food.  This would be a good place for an extendesd stay as it is not in a noisy location yet handy to the freeway. Food isn't walkable but just a short drive,When requested, staff quickly fixed a sticky iron and balky tv.Breakfast busy and well run.  Coffee always good.  Didn't eat eveneing meal here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r263506570-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>263506570</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Good price;  Good Location;  Great for business or family travel</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times over the past few months on business travel, and it's my first choice when I'm in the area.  The staff is consistently friendly and helpful.  The rooms (suites) are clean, and the property is well maintained.Good price for the area.Convenient location:  5 minute walk to the DART Light Rail station;  located right near i75 and the George Bush Turnpike;  about 30 minute drive from DFW and DAL airports.Free daily breakfast, and free Manager's Reception Mon-Wed nights (hot/cold buffet, snacks, beer, wine, soft drinks).Coin-operated guest laundry rooms ($1 wash/$1 dry -- very economical compared to the drop-off service that many hotels offer).  They have same day Dry Cleaning, but I haven't used that service.I previously posted a review complaining about the hotel wifi, but I would like to amend that.  Maybe the wifi router I was connecting to when I wrote my original review was not working properly.  During my subsequent stays, the wifi has been quite acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times over the past few months on business travel, and it's my first choice when I'm in the area.  The staff is consistently friendly and helpful.  The rooms (suites) are clean, and the property is well maintained.Good price for the area.Convenient location:  5 minute walk to the DART Light Rail station;  located right near i75 and the George Bush Turnpike;  about 30 minute drive from DFW and DAL airports.Free daily breakfast, and free Manager's Reception Mon-Wed nights (hot/cold buffet, snacks, beer, wine, soft drinks).Coin-operated guest laundry rooms ($1 wash/$1 dry -- very economical compared to the drop-off service that many hotels offer).  They have same day Dry Cleaning, but I haven't used that service.I previously posted a review complaining about the hotel wifi, but I would like to amend that.  Maybe the wifi router I was connecting to when I wrote my original review was not working properly.  During my subsequent stays, the wifi has been quite acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r240118539-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>240118539</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Nice people, Good rooms</t>
+  </si>
+  <si>
+    <t>The customer service was nice. . The only real issue I had, was not being able to get into my room for an entire day. Their computers were down and I had to be escorted to my room every time I needed to leave or return. They staff was friendly and the breakfast was good. The coffee was always fresh. The social hour M-W was also nice. The food was mediocre, but can't really complain about a free dinner with soda, coffee, wine, and beer.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r236656640-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>236656640</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Reservation not respected</t>
+  </si>
+  <si>
+    <t>My Reservation was not respected at arrival due to "overbooking".I was sent to courtyard next door which wasn't my choice. By the way, the courtyard is very unimpressive.Very disappointing experience.And a special ask for the the hotel's manager - please don't respond with slogans like how guest-centric you are, etc. I believe this overbooking practice maximizes this specific hotel profit on expense of guests , like myself, and on expense of Marriott brand. If it is a Marriott reservation practice rather than your decision - I am interested to hear that.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2014</t>
+  </si>
+  <si>
+    <t>My Reservation was not respected at arrival due to "overbooking".I was sent to courtyard next door which wasn't my choice. By the way, the courtyard is very unimpressive.Very disappointing experience.And a special ask for the the hotel's manager - please don't respond with slogans like how guest-centric you are, etc. I believe this overbooking practice maximizes this specific hotel profit on expense of guests , like myself, and on expense of Marriott brand. If it is a Marriott reservation practice rather than your decision - I am interested to hear that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r234919999-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>234919999</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Friendly hotel with a feeling of home that requires better quality control</t>
+  </si>
+  <si>
+    <t>For those of you who are on business trips to Richardson area, the Residence Inn is excellent location, and the room has a home feeling to it. I checked in in the middle of the nights and staff were extremely friendly and professional.I arrived after 1am and received room 322 in building B. I opened the door and there was such a strong smell of something (i dont know if it was some air freshener spray of too much quantity or other) that it was hard for me to stay more than a few seconds in the room. I went back to reception and immediately received a different room which was goos and with no odd smell.Other than that experience which needs to be checked and explained by the hotel management, i was satisfied with the hotel. Breakfast was complimentary and free parking (no lack of space in Dallas!).Overall if you want to feel at home , you receive a room with no strong odor and with no luxury expectations, then Residence Inn is nice play to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded October 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2014</t>
+  </si>
+  <si>
+    <t>For those of you who are on business trips to Richardson area, the Residence Inn is excellent location, and the room has a home feeling to it. I checked in in the middle of the nights and staff were extremely friendly and professional.I arrived after 1am and received room 322 in building B. I opened the door and there was such a strong smell of something (i dont know if it was some air freshener spray of too much quantity or other) that it was hard for me to stay more than a few seconds in the room. I went back to reception and immediately received a different room which was goos and with no odd smell.Other than that experience which needs to be checked and explained by the hotel management, i was satisfied with the hotel. Breakfast was complimentary and free parking (no lack of space in Dallas!).Overall if you want to feel at home , you receive a room with no strong odor and with no luxury expectations, then Residence Inn is nice play to stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r231270430-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>231270430</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>Worked for the stay</t>
+  </si>
+  <si>
+    <t>I am used to the RI's being much more modern, the wear on the hotel is visible, but not terrible.  Breakfast was a good spread every day and a kind lady who kept it stocked and clean.  Workout room was a bit small, awkward trying to exercise with three people in there.  Shuttle (with the most random hours) was available, and a partnership with the Bistro next door at the Courtyard. No restaurants right around there, so if you don't have a car it's a little tough. If you do have a car, there is plenty of parking so that is nice.  There is a Twisted Root though around the corner to try at least once. Depending on the rates the next time, I might come back, will have to see.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>I am used to the RI's being much more modern, the wear on the hotel is visible, but not terrible.  Breakfast was a good spread every day and a kind lady who kept it stocked and clean.  Workout room was a bit small, awkward trying to exercise with three people in there.  Shuttle (with the most random hours) was available, and a partnership with the Bistro next door at the Courtyard. No restaurants right around there, so if you don't have a car it's a little tough. If you do have a car, there is plenty of parking so that is nice.  There is a Twisted Root though around the corner to try at least once. Depending on the rates the next time, I might come back, will have to see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r224850415-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>224850415</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel, but staff did not meet my needs</t>
+  </si>
+  <si>
+    <t>I had two reservations for two consecutive nights.  On four different occasions I requested the same room for both nights.  This was not accomplished without extra conversations, extra phone calls, and much frustration.  They did make it right and apologized.Please be sure to have everything in writing and make last minute phone calls and person to person arrangements.  Staff don't seem to communicate very wellMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Jheannine G, General Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>I had two reservations for two consecutive nights.  On four different occasions I requested the same room for both nights.  This was not accomplished without extra conversations, extra phone calls, and much frustration.  They did make it right and apologized.Please be sure to have everything in writing and make last minute phone calls and person to person arrangements.  Staff don't seem to communicate very wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r224721188-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>224721188</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Not bad, overall still keep Residence Inn standard.</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights there. Breakfast was enough but not a lot of collection, the room, 1 bedroom, is comfortable and spacious. The swimming pool is a little small. Good friendly staffs. I like the afternoon snack for guests, the food and refreshment were nice and more than I expected, this hotel is not bad, but the furnitures in the room were a little old. I stayed at newer and better Residence Inn. Over all, it is still a good choice to stay in richardson.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights there. Breakfast was enough but not a lot of collection, the room, 1 bedroom, is comfortable and spacious. The swimming pool is a little small. Good friendly staffs. I like the afternoon snack for guests, the food and refreshment were nice and more than I expected, this hotel is not bad, but the furnitures in the room were a little old. I stayed at newer and better Residence Inn. Over all, it is still a good choice to stay in richardson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r217181734-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>217181734</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>great staff receptionists, kitchen and all others very nice and accommodatingroom was big and clean with all needed for a business tripe enough electricity sockets big TV grate bad happy hour for after work relaxation  near the 75 high way close to all shopping malls for weekend excitementMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Jheannine G, Manager at Residence Inn by Marriott Dallas Richardson, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>great staff receptionists, kitchen and all others very nice and accommodatingroom was big and clean with all needed for a business tripe enough electricity sockets big TV grate bad happy hour for after work relaxation  near the 75 high way close to all shopping malls for weekend excitementMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r214733475-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>214733475</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for a week. Location is very quiet in an office park and there was no noise.  Staff was very nice and friendly. Rooms were large and spacious and bed was very comfortable.Only minor housekeeping issues - there was some trash under the bed and had to go to front desk to get Kleenex for bathroom.  Satellite TV was spotty.  Free Wi-Fi did work great but they offer upgraded Wi-Fi if you need it for a fee.  Evening happy hour/light dinner M-Th was adequate and decent if you eat a large lunch and only want something light.  Breakfast varied each day and had good quality and variety.  Fitness room was very nice and area is great for walking/running but there are no shops/restaurants within walking distance but they did offer a shuttle to take you to nearby shopping etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a week. Location is very quiet in an office park and there was no noise.  Staff was very nice and friendly. Rooms were large and spacious and bed was very comfortable.Only minor housekeeping issues - there was some trash under the bed and had to go to front desk to get Kleenex for bathroom.  Satellite TV was spotty.  Free Wi-Fi did work great but they offer upgraded Wi-Fi if you need it for a fee.  Evening happy hour/light dinner M-Th was adequate and decent if you eat a large lunch and only want something light.  Breakfast varied each day and had good quality and variety.  Fitness room was very nice and area is great for walking/running but there are no shops/restaurants within walking distance but they did offer a shuttle to take you to nearby shopping etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r204059789-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>204059789</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay. It's an updated residence inn in a quiet location, no restaurants etc., in the immediate neighborhood but there are several a short drive away. Plenty of free parking. Lobby, rooms, bathrooms all clean and fresh. Very professional and friendly staff, special thanks to Anita, Mee and Kristie for making our stay comfortable.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r193816357-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>193816357</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Our family stayed here for nearly three months while our house was being remodeled post-flood - two adults, one teenager and two BIG dogs - and the entire staff couldn't have been nicer. The en suite kitchenette has everything you might need for cooking, but you seldom have to cook since the Marriott offers a full hot breakfast every day and dinner Monday through Thursday evenings.  Plus beer and wine.  If you're vegetarian, let them know! They are happy to prepare something for you, too!  If you have dogs, you might want to be prepared for the rabbits that are everywhere around this property.  Housekeeping is typical Marriott, which is top notch. Really, I have no negative comments.Just saw Mr. Kuldeep's review.. really? A lost car battery charger makes a bad review? Don't be ridiculous.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Our family stayed here for nearly three months while our house was being remodeled post-flood - two adults, one teenager and two BIG dogs - and the entire staff couldn't have been nicer. The en suite kitchenette has everything you might need for cooking, but you seldom have to cook since the Marriott offers a full hot breakfast every day and dinner Monday through Thursday evenings.  Plus beer and wine.  If you're vegetarian, let them know! They are happy to prepare something for you, too!  If you have dogs, you might want to be prepared for the rabbits that are everywhere around this property.  Housekeeping is typical Marriott, which is top notch. Really, I have no negative comments.Just saw Mr. Kuldeep's review.. really? A lost car battery charger makes a bad review? Don't be ridiculous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r190557965-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>190557965</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Quiet, Upscale Business Location . . . What's Not To Like?</t>
+  </si>
+  <si>
+    <t>Due to a frozen water pipe, our flooded home ushered us to this nicely equipped and maintained  Marriott property in our neighborhood.  So far, we've been here 5 nights and continue to think of this as a highly recommendable property.  Everything has been the typical, high level of Marriott expectations - the property was refurbished in Sept 2013, with nicely furnished rooms, comfortable and evidently well cleaned.  Even the weekday evening meals (included with the room) have been commendable.  The hot breakfast selections are varied and suitable to almost every taste.  Staff have been friendly, capable, and helpful.  Only the housekeeping staff strayed a little off of the expected path - took my bath soap bar and partially used shampoo bottle without leaving new replacements.  Yet, they brought a bottle of lotion from the front desk when I asked they had any on their cleaning cart.  It's been a very good, 5-day stay for us.  You shouldn't have any problems, either.  Oh yeah, it's a "dog friendly" place, but only in certain, designated rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Due to a frozen water pipe, our flooded home ushered us to this nicely equipped and maintained  Marriott property in our neighborhood.  So far, we've been here 5 nights and continue to think of this as a highly recommendable property.  Everything has been the typical, high level of Marriott expectations - the property was refurbished in Sept 2013, with nicely furnished rooms, comfortable and evidently well cleaned.  Even the weekday evening meals (included with the room) have been commendable.  The hot breakfast selections are varied and suitable to almost every taste.  Staff have been friendly, capable, and helpful.  Only the housekeeping staff strayed a little off of the expected path - took my bath soap bar and partially used shampoo bottle without leaving new replacements.  Yet, they brought a bottle of lotion from the front desk when I asked they had any on their cleaning cart.  It's been a very good, 5-day stay for us.  You shouldn't have any problems, either.  Oh yeah, it's a "dog friendly" place, but only in certain, designated rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r189156503-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>189156503</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The hotel was comfortable, the location convenient for the places we needed to go but in any case close to main routes. The breakfast, which was included, was limited but good. My wife forgot her jewellery and some cosmetics in the room and discovered it only when we returned home. We called two days later to enquire about the items. We spoke with Mee Ross who was very friendly and agreed to check the following day and call us, which she did after finding them. She agreed to ship it off to us. At the time I posted my initial review, the items had not arrived and I promised that I would update the review once they did. I am pleased to say that the items arrived safely. I really wanted to make this update particularly since I had seen an earlier review complaining of not having received items reportedly left at the hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>The hotel was comfortable, the location convenient for the places we needed to go but in any case close to main routes. The breakfast, which was included, was limited but good. My wife forgot her jewellery and some cosmetics in the room and discovered it only when we returned home. We called two days later to enquire about the items. We spoke with Mee Ross who was very friendly and agreed to check the following day and call us, which she did after finding them. She agreed to ship it off to us. At the time I posted my initial review, the items had not arrived and I promised that I would update the review once they did. I am pleased to say that the items arrived safely. I really wanted to make this update particularly since I had seen an earlier review complaining of not having received items reportedly left at the hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r167085019-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>167085019</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Very Stay</t>
+  </si>
+  <si>
+    <t>Almost everything about this Residence Inn is very good.  The staff works hard to please.  Rooms are comfortable albeit in need  of some light maintenance: bathtubs are rusty underneath the spout, doors wouldn't close, and things like that.  Everything worked the way that it was supposed to so we have no major complaints:  We did not have the opportunity  to take part in their hospitality hours.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r161200221-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>161200221</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>In town for a local concert and decided to stay here.  Beds were super comfy, room was very clean and had everything we might need (and more!). The girl at the desk named "Mee" was very friendly and helpful.  The breakfast was good.  There was quite the variety of choices.  Great location for our needs (we could walk to the venue). The other 'guests' were for the most part longer term residents.   It seemed like we were among just a handful of actual vacationers, but everyone was very friendly and it was fun watching the diversity on the patio.I look forward to staying here again!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r155687021-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>155687021</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>very comfortable and pleasant</t>
+  </si>
+  <si>
+    <t>I stayed here for 15 nights and every night I had a good night's sleep.  The staff are friendly and there is even a touch of 'fawlty towers' humour about them.  The breakfasts were good, even though they didn't know what an English fry-up was.The rooms were well equipped and the TV was good but there was not British television channels on there at all.  If you broadcast a Korean and an Indian channel, then please remember that there is BBC America!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r152490899-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>152490899</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Comfortable place for extended stay</t>
+  </si>
+  <si>
+    <t>I checked out this morning after four nights at this property.  My colleague and I checked in for a business trip at 11pm on Valentine's night.  They had little buckets of candy with balloons waiting for us, checked us in quickly, and upgraded my room.   That extra welcome on a night when we would have rather been elsewhere was very nice. The rooms were spotless and the staff solicitous.  They offered good restaurant recommendations as well.  A pleasant and comfortable stay.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r151764651-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>151764651</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>Extended stay for business</t>
+  </si>
+  <si>
+    <t>If your working in the telecom area this is a convenient spot close enough to walk. The staff is friendly and rooms are remodeled and clean yet a bit underwhelming due to small size. Generally rewards members are upgraded to a larger suite as a thank you for frequent stays and can enjoy a fire place in a larger suite,  unfortunately I was not extended that offer here so I and am making due with a small studio like setup for my 3 week stay. The breakfast and 4 day a week receptions are just ok, not what you want to be eating for diner on a regular basis. Breakfast lacks any real change up so if your long term the kitchen stovetop is a necessity. Front desk has been helpful and kitchen staff is friendly with a smile. Over all I'd say its a nice place for a short stay but I will explore larger room options for my longer stays in Richardson.MoreShow less</t>
+  </si>
+  <si>
+    <t>If your working in the telecom area this is a convenient spot close enough to walk. The staff is friendly and rooms are remodeled and clean yet a bit underwhelming due to small size. Generally rewards members are upgraded to a larger suite as a thank you for frequent stays and can enjoy a fire place in a larger suite,  unfortunately I was not extended that offer here so I and am making due with a small studio like setup for my 3 week stay. The breakfast and 4 day a week receptions are just ok, not what you want to be eating for diner on a regular basis. Breakfast lacks any real change up so if your long term the kitchen stovetop is a necessity. Front desk has been helpful and kitchen staff is friendly with a smile. Over all I'd say its a nice place for a short stay but I will explore larger room options for my longer stays in Richardson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r149036781-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>149036781</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Good hotel, great beds, nice rooms, nice breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is consistently clean and has nice big rooms, comfortable rooms.Nice simple breakfast and new nice lobby and breakfast area.Only reason its a 4 and not a five:1. The dinner snack they provide had no taste is looked like it was out of a box. If you plan to server bad "free" evening snack then better not to serve at all.2. I checked in after midnight and had to stand at the door for 10 min until someone answered the intercom and they questioned me for another 2-3 min. Does not make you feel like you are in the most secure hotel.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r139967621-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>139967621</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Good location away from the congestion on the 635.</t>
+  </si>
+  <si>
+    <t>3 days in a 2bdrm/2bth apartment style hotel room.  Perfect for the 4 of us.  Very clean, no mold, no marks on the walls, carpets had no stains, clean kitchen cabinets and appliances (coffee maker, microwave, fridge and stove).  Breakfast is well done and included in room price - yes, I did think the room was little over-priced, there are many less expensive options in the area but we wanted to all stay together but have separate bedrooms and baths.  Smallish fitness facility adequate for short stay but if you are planning to stay longer than few days - as in you are moving to area and staying in this facility while searching for a permanent home - then you may want to check out other fitness facility.  Loved the location, quiet, off the crowded freeway but still within 5 minutes of many shopping and dining options.  Couple comments - 1) our room needs to be exterminated, couple small crawly things in the bathroom.  2)the hallways are like meat lockers, very very very cold, unnecessarily so.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>3 days in a 2bdrm/2bth apartment style hotel room.  Perfect for the 4 of us.  Very clean, no mold, no marks on the walls, carpets had no stains, clean kitchen cabinets and appliances (coffee maker, microwave, fridge and stove).  Breakfast is well done and included in room price - yes, I did think the room was little over-priced, there are many less expensive options in the area but we wanted to all stay together but have separate bedrooms and baths.  Smallish fitness facility adequate for short stay but if you are planning to stay longer than few days - as in you are moving to area and staying in this facility while searching for a permanent home - then you may want to check out other fitness facility.  Loved the location, quiet, off the crowded freeway but still within 5 minutes of many shopping and dining options.  Couple comments - 1) our room needs to be exterminated, couple small crawly things in the bathroom.  2)the hallways are like meat lockers, very very very cold, unnecessarily so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r133048411-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>133048411</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Home away from Home for office-goers</t>
+  </si>
+  <si>
+    <t>Hi!!!Feel this hotel is best suited for those who stay for long duration as it provides complimentary breakfast, evening snacks and a kitchenette for some cooking.Likes:1. Nice location-peaceful,calm2. Friendly staff-Housekeeping+front office staff are friendly and offer prompt service3. Free shuttle service within 5 mile radius-That operates on weekdays at fixed timings.So, can    shop,dine, roam around in nearby places4. Dart rly station at walking distance-Trains cover most hotspots.So, can visit these tourist attractions with a single day pass without much hassle5.Swimming Pool-b'tiful outdoor pool that closes late in the night.Also provided with a hot pool.Things that could have been better:1. Fixed/Standard Breakfast-day in and day out, same buffet menu, that gets boring after a while.2. No boundary walls-The hotel premises are open to the front/back roads.There're no walls,which may pose a threat to securityMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Hi!!!Feel this hotel is best suited for those who stay for long duration as it provides complimentary breakfast, evening snacks and a kitchenette for some cooking.Likes:1. Nice location-peaceful,calm2. Friendly staff-Housekeeping+front office staff are friendly and offer prompt service3. Free shuttle service within 5 mile radius-That operates on weekdays at fixed timings.So, can    shop,dine, roam around in nearby places4. Dart rly station at walking distance-Trains cover most hotspots.So, can visit these tourist attractions with a single day pass without much hassle5.Swimming Pool-b'tiful outdoor pool that closes late in the night.Also provided with a hot pool.Things that could have been better:1. Fixed/Standard Breakfast-day in and day out, same buffet menu, that gets boring after a while.2. No boundary walls-The hotel premises are open to the front/back roads.There're no walls,which may pose a threat to securityMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r132007940-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>132007940</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Decent Hotel, but to pricey</t>
+  </si>
+  <si>
+    <t>Stayed here this wee in the beginning of June, Average Hotel with a very good pool, but the Hotel lacked feeling, just alot of space which is extremely typical for hotels in the Midwest. The breakfast was standard and decent price, although make sure you get the cook to make you the omelet. the other stuff is to much pre-fab.They charge 14 Dollars for internet!!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r128886116-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>128886116</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>They've remodeled!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I always stay at this hotel when we visit Dallas, it's always a perfect location for us, just of I-75 and close to all our favorite eating &amp; shopping spots.  What a pleasant surprise this time when we stepped into a newly remodeled room: carpet, appliances, furnishings.  It feels like the room expanded in size with the smart new l-shaped sofa.   It was a full house, but you would never know because the rooms are always quiet.  Didn't do the breakfast this time as they were still working on the front lobby, but really, who would want to eat any hotel complimentary breakfast when there's a Le Madeline's nearby?Two downers:  I though the pillows were a little hard &amp; there was a small gap in the black-out drapes (I experience that in most hotels though)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>My husband &amp; I always stay at this hotel when we visit Dallas, it's always a perfect location for us, just of I-75 and close to all our favorite eating &amp; shopping spots.  What a pleasant surprise this time when we stepped into a newly remodeled room: carpet, appliances, furnishings.  It feels like the room expanded in size with the smart new l-shaped sofa.   It was a full house, but you would never know because the rooms are always quiet.  Didn't do the breakfast this time as they were still working on the front lobby, but really, who would want to eat any hotel complimentary breakfast when there's a Le Madeline's nearby?Two downers:  I though the pillows were a little hard &amp; there was a small gap in the black-out drapes (I experience that in most hotels though)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r123762586-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>123762586</t>
+  </si>
+  <si>
+    <t>01/28/2012</t>
+  </si>
+  <si>
+    <t>Serviceable, but mediocre on many levels</t>
+  </si>
+  <si>
+    <t>I stayed at this property from late September through early December 2011 for a consulting project in Dallas.  As with many of my projects, I did not have a great deal of say in where I would be staying, though I am pretty particular because of the duration of the projects that makes lodging a huge factor.  Though, after a horrible lodging experience six years prior in the Dallas area, I arrived rather leery and skeptical about where I would be staying.
+This property is just off the North Central Expressway (Highway 75) in Richardson, and is tucked in the middle of a corporate park.  Even with familiarity of the area, the property can be tricky to find, GPS or no.  Once found, though, you realize it is easy to get to, as it is just off Greenville Avenue, which is a major thoroughfare and great alternative to get into downtown Dallas on the morning commute.  First-time visitors - especially those unfamiliar with the area - should definitely have GPS or very precise directions.
+The property is divided into two buildings (3 floors each) of guest rooms, with a central "community" building where the front desk is located.  There is an outdoor pool, a gym with limited equipment.  Laundry facilities seem limited - during my stay, it seemed that there was only one laundry room for each building, and cleanliness was sometimes an issue.    
+I believed I was booked into...I stayed at this property from late September through early December 2011 for a consulting project in Dallas.  As with many of my projects, I did not have a great deal of say in where I would be staying, though I am pretty particular because of the duration of the projects that makes lodging a huge factor.  Though, after a horrible lodging experience six years prior in the Dallas area, I arrived rather leery and skeptical about where I would be staying.This property is just off the North Central Expressway (Highway 75) in Richardson, and is tucked in the middle of a corporate park.  Even with familiarity of the area, the property can be tricky to find, GPS or no.  Once found, though, you realize it is easy to get to, as it is just off Greenville Avenue, which is a major thoroughfare and great alternative to get into downtown Dallas on the morning commute.  First-time visitors - especially those unfamiliar with the area - should definitely have GPS or very precise directions.The property is divided into two buildings (3 floors each) of guest rooms, with a central "community" building where the front desk is located.  There is an outdoor pool, a gym with limited equipment.  Laundry facilities seem limited - during my stay, it seemed that there was only one laundry room for each building, and cleanliness was sometimes an issue.    I believed I was booked into a one-bedroom suite, but wound up with a studio-type suite.  There was no division between kitchenette, living ,area, and bedroom.  An HD flat-screen TV was set on a low table so that it could be rotated 180 degrees from the bed area to the sofa.  Adjacent to the bed was a vanity area and the closet, and a small separate bathroom with toilet and shower.  Shelf space for clothing was extremely limited, though the closet was sufficient.  TV channel selection was rather limited;  while they operated off of a Dish TV system (different from most Marriott properties), it was perhaps 25 channels - and that's not counting the multiple ESPN channels that were offered in both HD and non-HD formats.  That proved to be quite a waste.Internet access was offered only in wireless format, which was fine, but it was set up in a pretty stupid way.  They had one option that was free, but which limited a lot of the functionality and data you could use.  The other was purportedly a "business" option that was unlimited, but cost $4.99/night.  However, for the duration of my stay, I could never make the "business" option work.  Frankly, as a Platinum member, I would figure that I could at least be able to access it.  Also, business travelers should be warned that the "business" center advertised on the property was only a desktop computer next to the front desk that did not have any of the Office suite or PDF capabilities to open, view, or print those documents.  Basically, it's only function was to print boarding passes, provided the computer was working.The property does offer a daily breakfast, though due to the nature of my project, I never ate there.  However, it was interesting to note that while the breakfast was free at the Residence Inn, there was a charge for breakfast next door at the Courtyard.  So, you would always see guests of the Courtyard walking over to the Residence Inn for the free breakfast.  It was interesting to me that this was tolerated, even though these properties are owned by the same corporation.  A few nights each week, the Residence Inn also offered a limited dinner-type selection.  I only ate there once, and it was not particularly good, nor were the nightly offerings particularly appealing to me.Dallas seems to have a problem with its extended stay lodging, probably as a result of being used for temporary housing after Hurricane Katrina and Hurricane Ike.  My previous stay in Dallas was marred by a property that had been thoroughly trashed by those moved in from the hurricane areas.  It seems that this property was also used, or at the very least is a high-traffic property, because there was a lot of wear and tear throughout my room and the property in general.  Specific to the room, there was a lot of paint chips, exposed nail heads in the walls, a semi-functional closet door, and kitchen appliances that worked to varying degrees.Another thing seemingly unique to Dallas, compared to every other location around the country where I have traveled for business or pleasure, is that these extended stay properties seem to have a fairly significant number of long-term residents.  By that I mean, people that are actually staying at the hotel as anyone else would an apartment.  There were quite obviously several on the floor in rooms near mine, based on general observations and overhearing conversations in the hallway when I would encounter them.  It seems a little odd, and while not necessarily an inconvenience to me, it might be to other travelers.Although this property is close to the expressway, it is really isolated in terms of groceries, restaurants, and dining.  Travelers staying at this property will have to drive anywhere from a half-mile (for a couple of sit-down dining options and a handful of fast-food) or more for dining options, at least a couple of miles for groceries, and 3 or more miles for more upscale dining and any of the plethora of shopping malls.  So, travelers should definitely have a vehicle to get around; though, if you're visiting the Dallas-Fort Worth area, you really can't get anywhere without a vehicle.Housekeeping services were wildly inconsistent in terms of quality of the cleaning services.  Worse, a few of the housekeepers had the bad habit of opening the windows in the room and/or cranking the thermostat up to 80.  So there were several occasions where I would return to the room on days I had housekeeping done, and had to spend the evening waiting for the room to cool down or - if thunderstorms had blown through - trying to dry the curtains and furniture nearest the windows.  As for the front desk staff, they were generally courteous and helpful, though there was one - apparently a supervisor - who was a little more overboard than was necessary with regards to guests picking up packages.  On two occasions, I had express/priority mail packets that arrived during her shift.  While I appreciated the fact that she double-checked my photo ID to make sure the parcel was being picked up by the correct guest, I did not appreciate the litany of questions that followed, quizzing me on the sender and the exact contents of the parcel.  In one case, I was not expecting the package, and so was extremely frustrated when it seemed like I wasn't going to be able to receive the parcel because I couldn't tell her who it was from and what was in the parcel. Frankly, those questions are not appropriate for anyone to ask, regardless of what the guest is really receiving. One last inconvenience: during the last several weeks of my stay, a locksmith was on site purportedly changing out the keycard locks on the guest rooms and building access doors.  In fact, the management posted notices on the guest room doors in early October notifying us that the room locks would be changed that week.  But they weren't actually changed until late November.  The keycards - particularly to get into the buildings - were often problematic from the outset of my stay.  So, I hoped that whenever they did change, they would resolve that problem.  Instead, when they finally changed, I first had to go back to the front desk, where I received two different key cards - one for the building access, and one for the room (instead of the one I used for both up this point).  Over the course of the next four nights, I had to return to the front desk to get new key cards for the room, the building, or both.  It wasn't that they got erased; it was that the locksmith kept fiddling with the locks, and invalidating the cards that the guests were issued the previous day.  It was a huge nuisance.  All told, this property was servicable for what turned out to be a very difficult project.  However, it was not up to my expected standards for a Marriott property, and seems to demonstrate that Dallas (as a whole) still seems to have a problem with the quality of their extended stay properties.  I was reluctant to move elsewhere during my stay, if only because there was no guarantee that I could find better.  In that regard, it was unfortunate, and I could only classify it among the "least-worst" option for business travelers if they cannot find better in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this property from late September through early December 2011 for a consulting project in Dallas.  As with many of my projects, I did not have a great deal of say in where I would be staying, though I am pretty particular because of the duration of the projects that makes lodging a huge factor.  Though, after a horrible lodging experience six years prior in the Dallas area, I arrived rather leery and skeptical about where I would be staying.
+This property is just off the North Central Expressway (Highway 75) in Richardson, and is tucked in the middle of a corporate park.  Even with familiarity of the area, the property can be tricky to find, GPS or no.  Once found, though, you realize it is easy to get to, as it is just off Greenville Avenue, which is a major thoroughfare and great alternative to get into downtown Dallas on the morning commute.  First-time visitors - especially those unfamiliar with the area - should definitely have GPS or very precise directions.
+The property is divided into two buildings (3 floors each) of guest rooms, with a central "community" building where the front desk is located.  There is an outdoor pool, a gym with limited equipment.  Laundry facilities seem limited - during my stay, it seemed that there was only one laundry room for each building, and cleanliness was sometimes an issue.    
+I believed I was booked into...I stayed at this property from late September through early December 2011 for a consulting project in Dallas.  As with many of my projects, I did not have a great deal of say in where I would be staying, though I am pretty particular because of the duration of the projects that makes lodging a huge factor.  Though, after a horrible lodging experience six years prior in the Dallas area, I arrived rather leery and skeptical about where I would be staying.This property is just off the North Central Expressway (Highway 75) in Richardson, and is tucked in the middle of a corporate park.  Even with familiarity of the area, the property can be tricky to find, GPS or no.  Once found, though, you realize it is easy to get to, as it is just off Greenville Avenue, which is a major thoroughfare and great alternative to get into downtown Dallas on the morning commute.  First-time visitors - especially those unfamiliar with the area - should definitely have GPS or very precise directions.The property is divided into two buildings (3 floors each) of guest rooms, with a central "community" building where the front desk is located.  There is an outdoor pool, a gym with limited equipment.  Laundry facilities seem limited - during my stay, it seemed that there was only one laundry room for each building, and cleanliness was sometimes an issue.    I believed I was booked into a one-bedroom suite, but wound up with a studio-type suite.  There was no division between kitchenette, living ,area, and bedroom.  An HD flat-screen TV was set on a low table so that it could be rotated 180 degrees from the bed area to the sofa.  Adjacent to the bed was a vanity area and the closet, and a small separate bathroom with toilet and shower.  Shelf space for clothing was extremely limited, though the closet was sufficient.  TV channel selection was rather limited;  while they operated off of a Dish TV system (different from most Marriott properties), it was perhaps 25 channels - and that's not counting the multiple ESPN channels that were offered in both HD and non-HD formats.  That proved to be quite a waste.Internet access was offered only in wireless format, which was fine, but it was set up in a pretty stupid way.  They had one option that was free, but which limited a lot of the functionality and data you could use.  The other was purportedly a "business" option that was unlimited, but cost $4.99/night.  However, for the duration of my stay, I could never make the "business" option work.  Frankly, as a Platinum member, I would figure that I could at least be able to access it.  Also, business travelers should be warned that the "business" center advertised on the property was only a desktop computer next to the front desk that did not have any of the Office suite or PDF capabilities to open, view, or print those documents.  Basically, it's only function was to print boarding passes, provided the computer was working.The property does offer a daily breakfast, though due to the nature of my project, I never ate there.  However, it was interesting to note that while the breakfast was free at the Residence Inn, there was a charge for breakfast next door at the Courtyard.  So, you would always see guests of the Courtyard walking over to the Residence Inn for the free breakfast.  It was interesting to me that this was tolerated, even though these properties are owned by the same corporation.  A few nights each week, the Residence Inn also offered a limited dinner-type selection.  I only ate there once, and it was not particularly good, nor were the nightly offerings particularly appealing to me.Dallas seems to have a problem with its extended stay lodging, probably as a result of being used for temporary housing after Hurricane Katrina and Hurricane Ike.  My previous stay in Dallas was marred by a property that had been thoroughly trashed by those moved in from the hurricane areas.  It seems that this property was also used, or at the very least is a high-traffic property, because there was a lot of wear and tear throughout my room and the property in general.  Specific to the room, there was a lot of paint chips, exposed nail heads in the walls, a semi-functional closet door, and kitchen appliances that worked to varying degrees.Another thing seemingly unique to Dallas, compared to every other location around the country where I have traveled for business or pleasure, is that these extended stay properties seem to have a fairly significant number of long-term residents.  By that I mean, people that are actually staying at the hotel as anyone else would an apartment.  There were quite obviously several on the floor in rooms near mine, based on general observations and overhearing conversations in the hallway when I would encounter them.  It seems a little odd, and while not necessarily an inconvenience to me, it might be to other travelers.Although this property is close to the expressway, it is really isolated in terms of groceries, restaurants, and dining.  Travelers staying at this property will have to drive anywhere from a half-mile (for a couple of sit-down dining options and a handful of fast-food) or more for dining options, at least a couple of miles for groceries, and 3 or more miles for more upscale dining and any of the plethora of shopping malls.  So, travelers should definitely have a vehicle to get around; though, if you're visiting the Dallas-Fort Worth area, you really can't get anywhere without a vehicle.Housekeeping services were wildly inconsistent in terms of quality of the cleaning services.  Worse, a few of the housekeepers had the bad habit of opening the windows in the room and/or cranking the thermostat up to 80.  So there were several occasions where I would return to the room on days I had housekeeping done, and had to spend the evening waiting for the room to cool down or - if thunderstorms had blown through - trying to dry the curtains and furniture nearest the windows.  As for the front desk staff, they were generally courteous and helpful, though there was one - apparently a supervisor - who was a little more overboard than was necessary with regards to guests picking up packages.  On two occasions, I had express/priority mail packets that arrived during her shift.  While I appreciated the fact that she double-checked my photo ID to make sure the parcel was being picked up by the correct guest, I did not appreciate the litany of questions that followed, quizzing me on the sender and the exact contents of the parcel.  In one case, I was not expecting the package, and so was extremely frustrated when it seemed like I wasn't going to be able to receive the parcel because I couldn't tell her who it was from and what was in the parcel. Frankly, those questions are not appropriate for anyone to ask, regardless of what the guest is really receiving. One last inconvenience: during the last several weeks of my stay, a locksmith was on site purportedly changing out the keycard locks on the guest rooms and building access doors.  In fact, the management posted notices on the guest room doors in early October notifying us that the room locks would be changed that week.  But they weren't actually changed until late November.  The keycards - particularly to get into the buildings - were often problematic from the outset of my stay.  So, I hoped that whenever they did change, they would resolve that problem.  Instead, when they finally changed, I first had to go back to the front desk, where I received two different key cards - one for the building access, and one for the room (instead of the one I used for both up this point).  Over the course of the next four nights, I had to return to the front desk to get new key cards for the room, the building, or both.  It wasn't that they got erased; it was that the locksmith kept fiddling with the locks, and invalidating the cards that the guests were issued the previous day.  It was a huge nuisance.  All told, this property was servicable for what turned out to be a very difficult project.  However, it was not up to my expected standards for a Marriott property, and seems to demonstrate that Dallas (as a whole) still seems to have a problem with the quality of their extended stay properties.  I was reluctant to move elsewhere during my stay, if only because there was no guarantee that I could find better.  In that regard, it was unfortunate, and I could only classify it among the "least-worst" option for business travelers if they cannot find better in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r120147476-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>120147476</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>Excellent hotel to stay if you travel to dallas</t>
+  </si>
+  <si>
+    <t>Excellent hotel with very friendly staff. The staff would make you feel at home. Good Rooms with very good facilities. Excellent house keeping staff. You get good complimentary breakfast in the hotel. Good swimming pool and other outdoor and indoor gaming facilities. I would strongly recomment this hotel.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r114118242-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>114118242</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>Feels Like home!</t>
+  </si>
+  <si>
+    <t>This was the first time I ever travelled out of my country, without friends /family so was hoping I would get a good place to stay which wouldn't make me miss home too much.My company put me up at Residence Inn Dallas Richardson for a duration of 1 month. This is a long time to be staying at at hotel. However, the accomodation  at Residence Inn Dallas Richardson was way above my expectations. The suite are well equiped with all you need in a home like atmosphere. The hotel serves a decent american breakfast each day and some evening snacks too to the inhouse guests. Though by the end of the trip I was craving for some good Indian food :) It is definately not bad though. The hotel had a reletively small gym but served the purpose of fitness and a nice swimming pool too. Overall, a very Cozy, home like place to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>This was the first time I ever travelled out of my country, without friends /family so was hoping I would get a good place to stay which wouldn't make me miss home too much.My company put me up at Residence Inn Dallas Richardson for a duration of 1 month. This is a long time to be staying at at hotel. However, the accomodation  at Residence Inn Dallas Richardson was way above my expectations. The suite are well equiped with all you need in a home like atmosphere. The hotel serves a decent american breakfast each day and some evening snacks too to the inhouse guests. Though by the end of the trip I was craving for some good Indian food :) It is definately not bad though. The hotel had a reletively small gym but served the purpose of fitness and a nice swimming pool too. Overall, a very Cozy, home like place to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r86099084-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>86099084</t>
+  </si>
+  <si>
+    <t>11/05/2010</t>
+  </si>
+  <si>
+    <t>Good hotel in Richardson Dallas...</t>
+  </si>
+  <si>
+    <t>As similar to my other business trips, my company booked this hotel for me and my other collegues recommended me too since it is nearby office area.
+This was my first trip to US for business meeting. It was a long journey for me around 32 hours (from my home Pune, India). I reached to hotel in evening around 5.30 PM, during the check in I come to know there is no single room available so the receptionist offered me double room with the same charge for 1 day and told me will shift my stuff to single room on next day, also he suggested to contact reception in the morning as on arrival my AMEX car did not work so next day after solving the card issue I had to swipe it again. After going into room I was too tired so sleep soon
+Rooms:
+Room was quite good, big LCD TV, Free Internet but speed is not so good, fridge, Hot Plate, Microwave, Toaster, Coffee Maker, Dish Washer , bathtub &amp; shower and Kingsize bed, etc.
+Breakfast:
+I was too hungry in the morning so went to do breakfast. It was standard American breakfast and in my whole stay I dont see there are any changes in it. The options are not too much so personally I did not like the breakfast much here. Even comparing with other Mariott hotels the breakfast is OK.
+Reception Service:
+As asked...As similar to my other business trips, my company booked this hotel for me and my other collegues recommended me too since it is nearby office area.This was my first trip to US for business meeting. It was a long journey for me around 32 hours (from my home Pune, India). I reached to hotel in evening around 5.30 PM, during the check in I come to know there is no single room available so the receptionist offered me double room with the same charge for 1 day and told me will shift my stuff to single room on next day, also he suggested to contact reception in the morning as on arrival my AMEX car did not work so next day after solving the card issue I had to swipe it again. After going into room I was too tired so sleep soonRooms:Room was quite good, big LCD TV, Free Internet but speed is not so good, fridge, Hot Plate, Microwave, Toaster, Coffee Maker, Dish Washer , bathtub &amp; shower and Kingsize bed, etc.Breakfast:I was too hungry in the morning so went to do breakfast. It was standard American breakfast and in my whole stay I dont see there are any changes in it. The options are not too much so personally I did not like the breakfast much here. Even comparing with other Mariott hotels the breakfast is OK.Reception Service:As asked to contact reception on next day, I went over and told I had been told during check-in that I will be shifted to another single room but the receptionist(another one) in morning told me they dont have single room available and will charge $200 from $79 even though I had a confirmed booking for around month. I had asked her to change the charge to $200 for that day and after confirmation from company will decide to continue with Mariott or not. In the evening after returning into Hotel, the person who was present during the checkin told me that my stuff is shifted into another single room. So this seems to be some kind of mis communication between the staff.Evening Snacks:Monday to Thursday you can enjoy the snacks in hotel for free of cost between 5.30 to 7.30. Note that there is no resturant service in hotel so will not get lunch or dinner in hotel and have to arrange it yourself.Other ServicesInternet:Wi-fi is available at free of cost in lobby area, in rooms you will get wired connection. Internet speed is too slow.Shuttle Service:Shuttle service is available in the morning and evening for pick-up and drop to office on prior booking.Recreational Activities:Gym, Swimming Pool, Tennis play ground are available at free of cost.Laundry:The washing machine and dryer are available where you can put all your clother for wash in just $2 (+ $2 for the washing powder and scented powder) .Other important thingsThe hotel is on walkable distance from AT&amp;T, Metro PCS, Verizon, Nortel Network, Cisco Network, Samsung Mobiles, Bank of America, etc.Hotel is close to Galatyn park railway station where you can get $4 local full day pass which can be used for all the Metros and DART buses.There are no markets on walkable distance so you need to call taxi (you can search for Yellow Cab) as near to Hotel there are no cabs available.In all enjoyed my trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>As similar to my other business trips, my company booked this hotel for me and my other collegues recommended me too since it is nearby office area.
+This was my first trip to US for business meeting. It was a long journey for me around 32 hours (from my home Pune, India). I reached to hotel in evening around 5.30 PM, during the check in I come to know there is no single room available so the receptionist offered me double room with the same charge for 1 day and told me will shift my stuff to single room on next day, also he suggested to contact reception in the morning as on arrival my AMEX car did not work so next day after solving the card issue I had to swipe it again. After going into room I was too tired so sleep soon
+Rooms:
+Room was quite good, big LCD TV, Free Internet but speed is not so good, fridge, Hot Plate, Microwave, Toaster, Coffee Maker, Dish Washer , bathtub &amp; shower and Kingsize bed, etc.
+Breakfast:
+I was too hungry in the morning so went to do breakfast. It was standard American breakfast and in my whole stay I dont see there are any changes in it. The options are not too much so personally I did not like the breakfast much here. Even comparing with other Mariott hotels the breakfast is OK.
+Reception Service:
+As asked...As similar to my other business trips, my company booked this hotel for me and my other collegues recommended me too since it is nearby office area.This was my first trip to US for business meeting. It was a long journey for me around 32 hours (from my home Pune, India). I reached to hotel in evening around 5.30 PM, during the check in I come to know there is no single room available so the receptionist offered me double room with the same charge for 1 day and told me will shift my stuff to single room on next day, also he suggested to contact reception in the morning as on arrival my AMEX car did not work so next day after solving the card issue I had to swipe it again. After going into room I was too tired so sleep soonRooms:Room was quite good, big LCD TV, Free Internet but speed is not so good, fridge, Hot Plate, Microwave, Toaster, Coffee Maker, Dish Washer , bathtub &amp; shower and Kingsize bed, etc.Breakfast:I was too hungry in the morning so went to do breakfast. It was standard American breakfast and in my whole stay I dont see there are any changes in it. The options are not too much so personally I did not like the breakfast much here. Even comparing with other Mariott hotels the breakfast is OK.Reception Service:As asked to contact reception on next day, I went over and told I had been told during check-in that I will be shifted to another single room but the receptionist(another one) in morning told me they dont have single room available and will charge $200 from $79 even though I had a confirmed booking for around month. I had asked her to change the charge to $200 for that day and after confirmation from company will decide to continue with Mariott or not. In the evening after returning into Hotel, the person who was present during the checkin told me that my stuff is shifted into another single room. So this seems to be some kind of mis communication between the staff.Evening Snacks:Monday to Thursday you can enjoy the snacks in hotel for free of cost between 5.30 to 7.30. Note that there is no resturant service in hotel so will not get lunch or dinner in hotel and have to arrange it yourself.Other ServicesInternet:Wi-fi is available at free of cost in lobby area, in rooms you will get wired connection. Internet speed is too slow.Shuttle Service:Shuttle service is available in the morning and evening for pick-up and drop to office on prior booking.Recreational Activities:Gym, Swimming Pool, Tennis play ground are available at free of cost.Laundry:The washing machine and dryer are available where you can put all your clother for wash in just $2 (+ $2 for the washing powder and scented powder) .Other important thingsThe hotel is on walkable distance from AT&amp;T, Metro PCS, Verizon, Nortel Network, Cisco Network, Samsung Mobiles, Bank of America, etc.Hotel is close to Galatyn park railway station where you can get $4 local full day pass which can be used for all the Metros and DART buses.There are no markets on walkable distance so you need to call taxi (you can search for Yellow Cab) as near to Hotel there are no cabs available.In all enjoyed my trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r63400858-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>63400858</t>
+  </si>
+  <si>
+    <t>05/06/2010</t>
+  </si>
+  <si>
+    <t>A good hotel to stay</t>
+  </si>
+  <si>
+    <t>Liked the place. Enjoyed the first evey snowfall there of my life. So it will be in my memories for long. Good hotel to stay. Spacious rooms and good service</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r20372665-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>20372665</t>
+  </si>
+  <si>
+    <t>09/25/2008</t>
+  </si>
+  <si>
+    <t>Nice , Clean, Responsive Staff - Great for business or family</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks on a business trip.  Took a 3rd / top floor suite.  It is located in a corporate park area, so it's quiet at night.  Only other hotel was the (typically) Courtyard next door.The room was always very clean.  The internet connection was good.  As far as equipment, microwave broke during my stay, but was replaced by the time I returned that evening with a brand new one.    I asked for a new iron as the one I had was spittig out mineral deposits.  The Desk had a new one up to me room in 10 minutes.The breakfasts were always hot  and fresh.. with a complete assortment of items.It was easy access to a many of the corporations in the area.  Restaurants are within a few miles, none walking distance.I must also compliment the staff &amp; management.  My stay started a few days before Hurricane Ike hit the Texas Gulf Coast.  The hotel was booked solid with evacuees for over a week.  The staff handled everything without missing a beat in service or quality despite the trying times.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks on a business trip.  Took a 3rd / top floor suite.  It is located in a corporate park area, so it's quiet at night.  Only other hotel was the (typically) Courtyard next door.The room was always very clean.  The internet connection was good.  As far as equipment, microwave broke during my stay, but was replaced by the time I returned that evening with a brand new one.    I asked for a new iron as the one I had was spittig out mineral deposits.  The Desk had a new one up to me room in 10 minutes.The breakfasts were always hot  and fresh.. with a complete assortment of items.It was easy access to a many of the corporations in the area.  Restaurants are within a few miles, none walking distance.I must also compliment the staff &amp; management.  My stay started a few days before Hurricane Ike hit the Texas Gulf Coast.  The hotel was booked solid with evacuees for over a week.  The staff handled everything without missing a beat in service or quality despite the trying times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r19897752-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>19897752</t>
+  </si>
+  <si>
+    <t>09/08/2008</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>My wife and I needed a place to stay for 2 nights when we visited our 2 grandchildren. We needed a place that would accomodate us all so our grandchildren could spend the night with us.We reserved a 2 bedroom which was ideal. Check-in was very easy and the staff is very friendly and professional. Each room had a queen bed and the livingroom couch pulled out into a bed. The kitchen was the perfect size. One thing I loved was the full-size coffee pot rather than the small 2 cup ones usually in the rooms. The hotel is very clean. The pool is outdoors and although there were leaves in the pool it was clean. This hotel is several blocks off all the main roads so there is absolutly no highway noise at all. I loved this place and we will stay there eveytime we visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2004</t>
+  </si>
+  <si>
+    <t>My wife and I needed a place to stay for 2 nights when we visited our 2 grandchildren. We needed a place that would accomodate us all so our grandchildren could spend the night with us.We reserved a 2 bedroom which was ideal. Check-in was very easy and the staff is very friendly and professional. Each room had a queen bed and the livingroom couch pulled out into a bed. The kitchen was the perfect size. One thing I loved was the full-size coffee pot rather than the small 2 cup ones usually in the rooms. The hotel is very clean. The pool is outdoors and although there were leaves in the pool it was clean. This hotel is several blocks off all the main roads so there is absolutly no highway noise at all. I loved this place and we will stay there eveytime we visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r16157855-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>16157855</t>
+  </si>
+  <si>
+    <t>05/17/2008</t>
+  </si>
+  <si>
+    <t>Great for a short business trip</t>
+  </si>
+  <si>
+    <t>I stayed here for a short meeting with one of the nearby telecom-related companies.  The hotel was ideal for the business traveler, though it lacked WiFi in the room and the wired Internet connection barely stretched to the couch.The room was a suite, with a kitchenette, and complementary water.  There are plenty of restaurants within a short drive, as well as a full complimentary breakfast bar.   The staff was courteous, and provided free chocolate since I am a Silver rewards member.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r7330084-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>7330084</t>
+  </si>
+  <si>
+    <t>04/10/2007</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two weeks. The decor is dated, but it's clean and comfortable. The service was very good and the free breakfast is above average. The area is very safe and there are plenty of good restaurants nearby. We would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r6642182-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>6642182</t>
+  </si>
+  <si>
+    <t>01/21/2007</t>
+  </si>
+  <si>
+    <t>Business hotel right next to the telecoms</t>
+  </si>
+  <si>
+    <t>Stayed just one night on a business trip. Clean, large room. Even a big kitchen that I didn't make use of.  Also good working space and sofa arrangement. Very nice complimentary breakfast. Regretfully, the Internet connection (both wired and wireless) were unstable if not just plain dead. The kind staff couldn't help at all, except they provided a hot-line number for the service provider. I didn't bother calling for support. Location seemed quite uninspired, but very convenient for business meetings with the nearby telecom industry players.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r6157623-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>6157623</t>
+  </si>
+  <si>
+    <t>11/19/2006</t>
+  </si>
+  <si>
+    <t>Average - Some plusses and minuses</t>
+  </si>
+  <si>
+    <t>A decent place to spend a few days, but nothing too special.  The service and people were friendly and helpful.  Location was good, but a little tricky to find in the dark.  The room was clean but smelled odd.  Free parking, internet, and breakfast were valuable and the reason I chose this hotel over others priced similarly.  The trade offs were rather cheap and worn furnishings, exactly the same mediocre quality breakfast offerings each day, fairly easy noise transmission between rooms, and the wireless was pretty useless from my room.  The wired connection worked fine, but they apparently have a different idea of what "high speed" means than I do.  The bed and pillows were comfortable.All in all there are a lot of places to choose from in this area and I would probably try a different one next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>A decent place to spend a few days, but nothing too special.  The service and people were friendly and helpful.  Location was good, but a little tricky to find in the dark.  The room was clean but smelled odd.  Free parking, internet, and breakfast were valuable and the reason I chose this hotel over others priced similarly.  The trade offs were rather cheap and worn furnishings, exactly the same mediocre quality breakfast offerings each day, fairly easy noise transmission between rooms, and the wireless was pretty useless from my room.  The wired connection worked fine, but they apparently have a different idea of what "high speed" means than I do.  The bed and pillows were comfortable.All in all there are a lot of places to choose from in this area and I would probably try a different one next time.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2310,5109 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>206</v>
+      </c>
+      <c r="X28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>219</v>
+      </c>
+      <c r="O32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>236</v>
+      </c>
+      <c r="X33" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>182</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>267</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>268</v>
+      </c>
+      <c r="X38" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>282</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>289</v>
+      </c>
+      <c r="X41" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>288</v>
+      </c>
+      <c r="O42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>268</v>
+      </c>
+      <c r="X42" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>299</v>
+      </c>
+      <c r="J43" t="s">
+        <v>300</v>
+      </c>
+      <c r="K43" t="s">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s">
+        <v>302</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>303</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>304</v>
+      </c>
+      <c r="X43" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
+        <v>311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>225</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s">
+        <v>317</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>225</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>324</v>
+      </c>
+      <c r="X46" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K47" t="s">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s">
+        <v>331</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>332</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>339</v>
+      </c>
+      <c r="O48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>340</v>
+      </c>
+      <c r="X48" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>339</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>348</v>
+      </c>
+      <c r="X49" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" t="s">
+        <v>354</v>
+      </c>
+      <c r="L50" t="s">
+        <v>355</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>356</v>
+      </c>
+      <c r="O50" t="s">
+        <v>357</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>358</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>359</v>
+      </c>
+      <c r="J51" t="s">
+        <v>360</v>
+      </c>
+      <c r="K51" t="s">
+        <v>361</v>
+      </c>
+      <c r="L51" t="s">
+        <v>362</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>363</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>364</v>
+      </c>
+      <c r="X51" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>367</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" t="s">
+        <v>369</v>
+      </c>
+      <c r="K52" t="s">
+        <v>370</v>
+      </c>
+      <c r="L52" t="s">
+        <v>371</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>363</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>372</v>
+      </c>
+      <c r="X52" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>376</v>
+      </c>
+      <c r="J53" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" t="s">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>380</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>381</v>
+      </c>
+      <c r="X53" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>384</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>385</v>
+      </c>
+      <c r="J54" t="s">
+        <v>386</v>
+      </c>
+      <c r="K54" t="s">
+        <v>387</v>
+      </c>
+      <c r="L54" t="s">
+        <v>388</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>389</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>390</v>
+      </c>
+      <c r="X54" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>393</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>394</v>
+      </c>
+      <c r="J55" t="s">
+        <v>395</v>
+      </c>
+      <c r="K55" t="s">
+        <v>396</v>
+      </c>
+      <c r="L55" t="s">
+        <v>397</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>398</v>
+      </c>
+      <c r="O55" t="s">
+        <v>357</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>390</v>
+      </c>
+      <c r="X55" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>402</v>
+      </c>
+      <c r="K56" t="s">
+        <v>403</v>
+      </c>
+      <c r="L56" t="s">
+        <v>404</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>405</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>406</v>
+      </c>
+      <c r="X56" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>409</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>410</v>
+      </c>
+      <c r="J57" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" t="s">
+        <v>412</v>
+      </c>
+      <c r="L57" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>414</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s">
+        <v>420</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>421</v>
+      </c>
+      <c r="O58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>422</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>423</v>
+      </c>
+      <c r="J59" t="s">
+        <v>424</v>
+      </c>
+      <c r="K59" t="s">
+        <v>425</v>
+      </c>
+      <c r="L59" t="s">
+        <v>426</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>427</v>
+      </c>
+      <c r="O59" t="s">
+        <v>83</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>429</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>430</v>
+      </c>
+      <c r="J60" t="s">
+        <v>431</v>
+      </c>
+      <c r="K60" t="s">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s">
+        <v>433</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>427</v>
+      </c>
+      <c r="O60" t="s">
+        <v>83</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>436</v>
+      </c>
+      <c r="J61" t="s">
+        <v>437</v>
+      </c>
+      <c r="K61" t="s">
+        <v>438</v>
+      </c>
+      <c r="L61" t="s">
+        <v>439</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" t="s">
+        <v>444</v>
+      </c>
+      <c r="K62" t="s">
+        <v>445</v>
+      </c>
+      <c r="L62" t="s">
+        <v>446</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>447</v>
+      </c>
+      <c r="O62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>449</v>
+      </c>
+      <c r="J63" t="s">
+        <v>450</v>
+      </c>
+      <c r="K63" t="s">
+        <v>451</v>
+      </c>
+      <c r="L63" t="s">
+        <v>452</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>453</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>455</v>
+      </c>
+      <c r="J64" t="s">
+        <v>456</v>
+      </c>
+      <c r="K64" t="s">
+        <v>457</v>
+      </c>
+      <c r="L64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>459</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>460</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>461</v>
+      </c>
+      <c r="J65" t="s">
+        <v>462</v>
+      </c>
+      <c r="K65" t="s">
+        <v>463</v>
+      </c>
+      <c r="L65" t="s">
+        <v>464</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>465</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>466</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" t="s">
+        <v>468</v>
+      </c>
+      <c r="K66" t="s">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s">
+        <v>470</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>465</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>472</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>473</v>
+      </c>
+      <c r="J67" t="s">
+        <v>474</v>
+      </c>
+      <c r="K67" t="s">
+        <v>475</v>
+      </c>
+      <c r="L67" t="s">
+        <v>476</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>477</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>478</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>479</v>
+      </c>
+      <c r="J68" t="s">
+        <v>480</v>
+      </c>
+      <c r="K68" t="s">
+        <v>481</v>
+      </c>
+      <c r="L68" t="s">
+        <v>482</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>483</v>
+      </c>
+      <c r="O68" t="s">
+        <v>83</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>485</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>486</v>
+      </c>
+      <c r="J69" t="s">
+        <v>487</v>
+      </c>
+      <c r="K69" t="s">
+        <v>488</v>
+      </c>
+      <c r="L69" t="s">
+        <v>489</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>490</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>492</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>493</v>
+      </c>
+      <c r="J70" t="s">
+        <v>494</v>
+      </c>
+      <c r="K70" t="s">
+        <v>495</v>
+      </c>
+      <c r="L70" t="s">
+        <v>496</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>497</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>499</v>
+      </c>
+      <c r="J71" t="s">
+        <v>500</v>
+      </c>
+      <c r="K71" t="s">
+        <v>501</v>
+      </c>
+      <c r="L71" t="s">
+        <v>502</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>503</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>505</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>506</v>
+      </c>
+      <c r="J72" t="s">
+        <v>507</v>
+      </c>
+      <c r="K72" t="s">
+        <v>508</v>
+      </c>
+      <c r="L72" t="s">
+        <v>509</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>510</v>
+      </c>
+      <c r="O72" t="s">
+        <v>66</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>512</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>513</v>
+      </c>
+      <c r="J73" t="s">
+        <v>514</v>
+      </c>
+      <c r="K73" t="s">
+        <v>515</v>
+      </c>
+      <c r="L73" t="s">
+        <v>516</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>517</v>
+      </c>
+      <c r="O73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>518</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>519</v>
+      </c>
+      <c r="J74" t="s">
+        <v>520</v>
+      </c>
+      <c r="K74" t="s">
+        <v>521</v>
+      </c>
+      <c r="L74" t="s">
+        <v>522</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>523</v>
+      </c>
+      <c r="O74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>525</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>526</v>
+      </c>
+      <c r="J75" t="s">
+        <v>527</v>
+      </c>
+      <c r="K75" t="s">
+        <v>528</v>
+      </c>
+      <c r="L75" t="s">
+        <v>529</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>530</v>
+      </c>
+      <c r="O75" t="s">
+        <v>66</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>532</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>533</v>
+      </c>
+      <c r="J76" t="s">
+        <v>534</v>
+      </c>
+      <c r="K76" t="s">
+        <v>535</v>
+      </c>
+      <c r="L76" t="s">
+        <v>536</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>537</v>
+      </c>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>538</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>539</v>
+      </c>
+      <c r="J77" t="s">
+        <v>540</v>
+      </c>
+      <c r="K77" t="s">
+        <v>541</v>
+      </c>
+      <c r="L77" t="s">
+        <v>542</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" t="s">
+        <v>546</v>
+      </c>
+      <c r="K78" t="s">
+        <v>547</v>
+      </c>
+      <c r="L78" t="s">
+        <v>548</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>549</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>551</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>552</v>
+      </c>
+      <c r="J79" t="s">
+        <v>553</v>
+      </c>
+      <c r="K79" t="s">
+        <v>554</v>
+      </c>
+      <c r="L79" t="s">
+        <v>555</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>556</v>
+      </c>
+      <c r="O79" t="s">
+        <v>66</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>557</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>558</v>
+      </c>
+      <c r="J80" t="s">
+        <v>559</v>
+      </c>
+      <c r="K80" t="s">
+        <v>560</v>
+      </c>
+      <c r="L80" t="s">
+        <v>561</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>562</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>563</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>564</v>
+      </c>
+      <c r="J81" t="s">
+        <v>565</v>
+      </c>
+      <c r="K81" t="s">
+        <v>566</v>
+      </c>
+      <c r="L81" t="s">
+        <v>567</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>568</v>
+      </c>
+      <c r="O81" t="s">
+        <v>66</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65495</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>569</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>570</v>
+      </c>
+      <c r="J82" t="s">
+        <v>571</v>
+      </c>
+      <c r="K82" t="s">
+        <v>572</v>
+      </c>
+      <c r="L82" t="s">
+        <v>573</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>574</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_660.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_660.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>MaryAnn M</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Danita J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r581557097-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Gaurav P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r581310478-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>horndavid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r578165189-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>My experience was awesome especially with the staff which was first class stay the individual atFront desk was name Veronica Love that had outstanding sevice.I go back this place stay and would recommend any.to stay here. David Horn</t>
   </si>
   <si>
+    <t>Shan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r577744581-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>I frequent Dallas for work and this is usually the hotel I choose to stay at. I always receive great service and recently I was assisted by Ricky at the front desk. He was very pleasant and really went above and beyond while assisting me with my check in. This is a prime location that is centrally located with easy access to highways. There is even a shuttle that will transport you to the mall. The rooms are always clean and well stocked with accommodating amenities. If you are looking for somewhere to stay that offers affordable rates and great hospitality from staff the Residence Inn at this location is for you. Thanks again! More</t>
   </si>
   <si>
+    <t>lindaksckittone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r576870882-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -268,6 +286,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>dpinneaux</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r564332710-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
@@ -309,6 +330,9 @@
 2.  The ONLY reason they knew it was a personal card is because I checked...I am a Platinum Elite Marriott member with over 500 night stays.  I booked a reservation via the Marriott website for an employee of mine that was travelling in from out of town and staying in Richardson.I requested (and submitted via FAX) the credit card authorization form for the stay.  I would assume that a Residence Inn receives many longer-term corporate stays -- they are the "extended stay" arm of the Marriott brand.I was first called and told that I needed to provide a front/back copy of my credit card and my drivers' license -- OBVIOUS fraudulent request that I would never do.  (and the bottom of their form clearly states NOT to do that)  When I called the team member out for requesting this, she stated that I was "arguing" with her and told me that I needed to speak with her manager.Her manager (after backpedaling on the request that her team member made) then proceeded to tell me that, due to fraud, they could not accept a personal credit card to secure a room and could only accept a corporate card.  She stated that this was the policy of the hotel GM.Issues with this whole situation (apart from the lack of caring customer service):1.  The card I was using was my Marriott Rewards card -- THEIR branded card.2.  The ONLY reason they knew it was a personal card is because I checked the box.  I could have easily checked the "Corporate" card box.3.  If fraud was the reason for their policy, her team members requesting copies of my cards and drivers' license sound a LOT more fraudulent than a Platinum member booking business travel.In short -- I do not recommend booking at this property.  Their business practices (and lack of customer service) are huge warning signs that they do not care about their guest.  I sure hope a owner reads this and corrects this soon!!More</t>
   </si>
   <si>
+    <t>doc10261881</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r558394509-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Julie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r558274955-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>ANGEL C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r538758232-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Robinson M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r538064391-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>I had a really pleasant stay at this hotel last month. Customer service is awesome (especially Ricky at the front desk) and rooms are nice as well. I was in need of some last minute color printouts for my interview the next day and he was very patient in helping me out.Though this was my first stay there, I felt as if I was a long-timer at that hotel. The stay became even more memorable when I was offered the job I interviewed for.Thank you Ricky and the management there once again for your hospitality.</t>
   </si>
   <si>
+    <t>HoggLife1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r533290699-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>Brought my family here for a college football game and wanted to be away from a lot traffic. This was a nicely run establishment. I left the pets due to the $275 fee but not a deal breakerLocation was near other hotels right near to highways.Grounds were in good shapeRoom was a queen suite that was well equipped with full fridge.Wifi was solid for the children. Breakfast had solid options for hotel. Waffles eggs sausage cereals yogurts fruit etc. Good overall values thank you!</t>
   </si>
   <si>
+    <t>robertbarnes93</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r518430242-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>TX_Colliers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r515195765-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -426,6 +468,9 @@
     <t>Needed a place to stay that was close to UT Dallas, and had a two bedroom suite for our family. The Residence Inn Richardson was exactly what we were looking for. The location is off the freeway a bit, in sort of a corporate &amp; residential park area. We arrived late, having checked in online. When we arrived, they were expecting us, and even provided cold bottles of water for us to take back to the room with us. There were two separate bedrooms with full size beds, and a living room with a pull out couch bed. Both bedrooms had their own bathroom, which was very much appreciated. Room was clean and quiet; virtually no traffic or other noise to keep us up. (We were in room 327, on the third floor in back of building B.) On the first night, one of the kids was going to sleep on the couch; initially we opened out the sofa bed, but the mattress looked pretty dodgy and stained. We closed the sofa back up and just put the sheets on top of the sofa itself.  Property has a workout room, a pool, and a sports court (none of which we used this trip, but it's good to know they're there for future visits). I worked from the hotel room one day, and the WiFi was solid; we were also able to stream a Netflix movie that evening with no problems....Needed a place to stay that was close to UT Dallas, and had a two bedroom suite for our family. The Residence Inn Richardson was exactly what we were looking for. The location is off the freeway a bit, in sort of a corporate &amp; residential park area. We arrived late, having checked in online. When we arrived, they were expecting us, and even provided cold bottles of water for us to take back to the room with us. There were two separate bedrooms with full size beds, and a living room with a pull out couch bed. Both bedrooms had their own bathroom, which was very much appreciated. Room was clean and quiet; virtually no traffic or other noise to keep us up. (We were in room 327, on the third floor in back of building B.) On the first night, one of the kids was going to sleep on the couch; initially we opened out the sofa bed, but the mattress looked pretty dodgy and stained. We closed the sofa back up and just put the sheets on top of the sofa itself.  Property has a workout room, a pool, and a sports court (none of which we used this trip, but it's good to know they're there for future visits). I worked from the hotel room one day, and the WiFi was solid; we were also able to stream a Netflix movie that evening with no problems. Breakfast was surprisingly good, with a variety of hot and cold items. We had no issue finding gluten-free options.  The hotel also has a small snack shop (really just a few shelves near registration), but the items are quite overpriced; recommend bringing your own snacks rather than buying them on premises.  There are no eating establishments within walking distance, but there is a quaint little "market street" with a number of eating establishments about 5 minutes' drive south at Campbell Rd and Lakeside Blvd (the Twisted Root Burger Company is definitely worth a visit).  All in all a very pleasant stay; we would stay here again.More</t>
   </si>
   <si>
+    <t>Rhi21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r507505274-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -444,6 +489,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>KelliAshbrookCumming</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r500455238-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -463,6 +511,9 @@
   </si>
   <si>
     <t>Ricky and his crew were very friendly, welcoming and accommodating.  My family and I stayed for a little over a week.  We had the two bedroom suite which was perfect.  We were able to take advantage of the breakfast that was available each morning and then for most lunches and dinners we were able to stay in with our own kitchen area.  There is a television in the living room as well as TV's in each bedroom.  You can opt to have cleaning service come everyday to make sure the suite is clean.  I would recommend this place.  It isn't posh, but it is nice, definitely clean, spacious, welcoming and perfect for extended stay.More</t>
+  </si>
+  <si>
+    <t>eyelovetotraveltwo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r500361009-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
@@ -484,6 +535,9 @@
 The bad and the ugly.  Because the hotel is so dated, it smells dated.  Hallways in Building A (which is where we stayed) and our room had a very moldy, wet smell.  I remedied this by cleaning my own hotel room (which I always do) and burning incense.  Our microwave died the second day we were there, but the awesome maintenance guy (Ricardo) replaced it right away.  The bathtub fixtures are rusty looking and the coffee pot has seen better days.  I’m sure if I had asked them to replace the...My husband and I travel for business 80% of the time, so I consider myself a bit knowledgeable about good and bad hotel stays.  I’m not extremely picky but I won’t stay in a dump either.Let me start with the good.  Although very dated, this hotel has been upgraded in some areas and is comfortable.  The majority of the staff members are professional, helpful and very nice people, from front desk to maintenance to housekeeping.  They gave a very welcome feel to the hotel.  There’s a nice barbeque grill and the breakfast buffet, although I did not partake, looked very good.  Standard Residence Inn-type food complete with waffle maker, etc.  They also have their typical social hour Monday thru Wednesday, complete with beer and wine, etc.  The full kitchen is useful for us as is the laundry, which we were unable to use because we left so abruptly.The bad and the ugly.  Because the hotel is so dated, it smells dated.  Hallways in Building A (which is where we stayed) and our room had a very moldy, wet smell.  I remedied this by cleaning my own hotel room (which I always do) and burning incense.  Our microwave died the second day we were there, but the awesome maintenance guy (Ricardo) replaced it right away.  The bathtub fixtures are rusty looking and the coffee pot has seen better days.  I’m sure if I had asked them to replace the coffee pot in the room, they would have done it because, as I stated previously, most of the staff members are very helpful.  The carpet always felt moist as did the tile floors in the kitchen and bathroom.  Very clammy!  After walking around before getting into the shower, my feet were filthy from the floors as was apparent by the brownish water near the drain when I got into the shower.  ICK!  The elevator was so dated I was almost afraid to use it the couple of times that I did.  However, I was willing to tolerate these small flaws for three weeks because it was livable and most of the staff members here are very nice.The worst part of staying here and the reason for my poor review is all because of the last night we were there.  We had originally booked the hotel for about three weeks but left after the fourth night.  On Saturday night, apparently there was a wedding party staying and partying at the hotel.  Our room overlooked the basketball court (another pain – Thunk!  Thunk!  Thunk! All day long) and was close to the pool area.  There were about twenty people at the pool, laughing and talking very loud that Saturday night.  It was 11:00pm when I asked my husband to call the front desk to see what time the pool closes.  My husband and I are early risers and I am a much nicer person when I can get a decent night’s sleep.  The woman at the front desk answered and when my husband asked about the pool hours, she stated they had already sent someone out there to clear the party because the pool closes at 11:00.Fifteen minutes later, the sounds of loud conversation and laughing had not died down so my husband called the front desk a second time.  The woman advised my husband that they were doing a shift change and that they would remedy the situation as soon as they could.  They were working on it.  By 11:30, I called the front desk and an extremely unhappy-sounding woman answered the phone.  I asked her when they were going to clear the people from the pool area and she stated, in a very stern and frustrated voice, “we told them they could stay if they were quiet, ma’am.”  I firmly told the woman, “They are NOT quiet!”  She said "We are working on clearing the people from the pool area, ma’am” and I said, “For half an hour?”  I advised her that this was unacceptable and that they needed to clear the area or move us to another room.  She said they could move us to another room.  My husband said that was unacceptable because it was 11:30 at night and we have three weeks’ worth of clothing and food in our room.  The point of clearing out the noisy people was to get some sleep.  Moving would have taken a while!  The whole time, this woman kept referring to me, rather sternly, as MA’AM!  I realized I was fighting a losing battle, so I hung up on her.  I remembered reading another guest’s review about Room 102.  Same complaints about noisy guests.  I usually try to give places the benefit of the doubt and experience things for myself.  This time I was wrong and should have heeded the other reviewer’s advice.Shortly after I hung up, we saw a rather robust woman entering the pool area.  At that point, all of the guests cleared the area.  My guess is that this is the woman who I just hung up on.  I’m thinking she is much better suited in a position at the pool during closing, barking at guests to leave than answering the telephone at the front desk.  Not a people person . . . at all!  Minutes later, a young girl decided to lie down on the basketball court and have a loud cell phone conversation with someone.  My husband opened the window and asked her to leave.  She did.  I told my husband we needed to leave the hotel as soon as possible.The next morning, after securing a room at another hotel, the front desk called and asked if we were actually checking out that day.  I told the VERY nice lady on the phone that we were because we had a terrible night there.  She apologized and said they had a care package for us and to stop by the front desk because her supervisor wanted to speak to us.  We stopped by the front desk and talked to the supervisor.  She apologized for the rude employee the night before and said that she would address the issue with her.  Then she said that the employee left a care package for us.  The supervisor explained that there wasn’t much they could do about the noisy guests, short of calling the police.  I understand that and actually thought about calling the police myself.  We looked at the care package and both my husband and I knew that it would be highly uncharacteristic of the "person" we spoke to the night before to make such a sweet gesture.  I’m sure the package came from the hotel supervisor as it included some extra Marriott points.  It was a very nice gesture, but still doesn't make up for my lack of sleep nor the rudeness of the late-night employee.All-in-all this would be a decent hotel and it is if you don’t mind or actually love the party scene.  Apparently, unless they send the angry night-shift lady out to chase partiers away or call the police, there’s not much the hotel can do for guests who would like a decent night’s sleep.My advice?  Pay attention to some of the bad reviews as history will repeat itself.More</t>
   </si>
   <si>
+    <t>justin t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r498357506-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -499,6 +553,9 @@
     <t xml:space="preserve">Hotel stay was awesome, clean room every time. Front desk service was amazing, Ricky started a fan club for me. Nice breakfast in the mornings, as well as options at night on Mon, Tues and Wed. Overall excellent stay, if I travel to the Dallas area again I would definitely stay here. </t>
   </si>
   <si>
+    <t>bikedon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r495473113-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -514,6 +571,9 @@
     <t>The staff make this hotel great.   My friend Ricky from the nearby Courtyard is not at the desk. Shuttle captain and do it all Laila.  Don't forget Nolan and the others.   The special pillow with our company logo was very thoughtful.  Nice touch.   The breakfast is always ready by 6:30am and dinner drinks and snacks are another nice perk.  Rooms are large and well appointed.</t>
   </si>
   <si>
+    <t>Patricia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r494420588-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -532,6 +592,9 @@
     <t>I have stayed at this location several times over the last 6 years for 5-7 nights each time and being here always feels like being home! Great staff in all areas of hotel always ready to help, the hotel's general areas are always clean, feel safe, breakfast always has a lot of choices, pool and pool area clean, workout room nice...... can you tell I use every area of this hotel.  I had not been here for two years and when I arrived I was treated like family coming home after a long trip!  Pricilla, the GM did everything she could to get me into my room early and into a room I have stayed in many times!  The amazing thing is the room was the same as two years earlier, no wear and tear, clean and fresh!  I truely enjoy being at this hotel and that says a lot since I stay an average of 70 nights a year in hotels.More</t>
   </si>
   <si>
+    <t>CharlieOh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r494115610-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -547,6 +610,9 @@
     <t>I like Residence Inn because it feels like home instead of hotel.And this hotel was nice and clean as I would expect my home to be.All of staffs were very kind.Specially Ricky greeted me with smile and help me to check in and Nolan helped me to locate my belongings I left behind.The room I stayed had a door between living room and bedroom which made me feel like staying in one bedroom condo instead of studio.It is nice and I would be back again when I am in Richardson or Plano area.</t>
   </si>
   <si>
+    <t>Suzy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r486441165-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -565,6 +631,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>CezWho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r486038190-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -583,6 +652,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>NatáLia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r480980985-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -604,6 +676,9 @@
     <t>So, I came here two months ago, and I am still impressed about the quality of service that they give.I always believed that you can have the best product, but if you do not have the best service, it will never work.Here you have everything complete: product and service.They have breakfast every day, and three times a week a snack time at night with live music. There's a shuttle to the city in case that you need.The clean service can be requested daily, and I must say how good the employees are.Always with the smile on their face, friendly, nice and very competent.I would like to emphasize a special thanks to Juliana, Delia and Ricardo who always treat me so nice  :)More</t>
   </si>
   <si>
+    <t>Richard P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r471750993-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -619,6 +694,9 @@
     <t>I stay at this hotel every time I am in town. I always get great service. Shelly who works the front desk went above and beyond for me last time I stayed. She always attends to my needs and that is why I come back. Thank you Shelly for always making my stay enjoyable.Rich</t>
   </si>
   <si>
+    <t>Valerie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r469241661-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -632,6 +710,9 @@
   </si>
   <si>
     <t>I've stayed at a couple other Residence Inn properties in the past. This one has by far the best hospitality I've encountered. Breakfast was a little better, housekeeping left little treats, and the happy hour had live entertainment and a full meal for guests. There were lots of nice outdoor seating f areas with heaters and/or fire pits. The property accommodated our request for a late checkout. I'd love to give 4.5 stars. The only reason I didn't give 5 stars was the pullout sofa needed a new mattress.</t>
+  </si>
+  <si>
+    <t>Ohad B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r457607390-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
@@ -691,6 +772,9 @@
 If for some reason you end up at this hotel, avoid room 120 at any cost. You will not be able to open...I stayed here for 5 nights.I got room 120.The min I checked in I asked to move a room since the room is facing the main patio area.I was told the hotel is full and they can't move me today but only the next day.I decided to give this a chance - what a mistake!!!A group of people sat outside my windows drinking beer and smoking until almost mid-night.Hardly got any sleep.The next day I packaged ready to move a room but the front office told me the room will only be available after 2pm.I told them I can move now or after 6pm. They said No, we need your room clear since we have guests coming in so you need to be here at 2pm to move your things.I explained again that I can't but they didn't care.That evening again a group was outside my window until 11pm, drinking, smoking and making noise. The next day I asked again if I can move a room but was told the hotel is fully booked.I was really expecting much better experience from this hotel.  Next time I will stay at the Hyatt down the street or the Courtyard next door.Will never come back to this hotel.If for some reason you end up at this hotel, avoid room 120 at any cost. You will not be able to open the blinds, the windows or sleep.More</t>
   </si>
   <si>
+    <t>Waz-TheCloser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r423373011-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -709,6 +793,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Rickpang05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r423362339-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -724,6 +811,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>marytdale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r421278571-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -742,6 +832,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>sharmanirajk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r405358944-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -757,6 +850,9 @@
     <t>I am enjoying my stay at the Richardson Residence Inn. We have been very impressed with the friendly and very hard working staff. Vanessa provided professional service upon my check-in. Her can do attitude was much appreciated. The entire front desk team: Lisa, Linda, Sylvia, Kristie and Laila are top notch professionals, friendly and helpful.. Additionally, Ricardo provides great maintenance care and the housekeeping staff is superb! Kudos to this team.</t>
   </si>
   <si>
+    <t>N R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r403877896-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -781,6 +877,9 @@
     <t>My family and I are staying at this hotel.The stay has been pleasant from the beginning June 20th until today, August 10th.  My daughter's and I were dining at the evening social and I was approached by Liz or Lisa one of the emaployees here.  She'd asked me if I'd taken a bottle of wine to bring back up to my room.  I was shocked, highly offended, extremedy embarrassed and thoroughly insulted by this accusation. I'd advised her, no that my GLASS of wine was on the table and pointed to it to prove my case.  I'd also advised her that the wine bottle was in the trash and she looked in the trash to confirm that I was being truthful.  She then informed the employee working the social that I'd only had a glass of wine and didn't take the bottle.I am a Marriot silver rewards member and is on track to become gold within a few weeks.  I'd even reserved a room in a California Residence Inn for our family vacation.  I'm second guessing that decision based on the disrespect that I'd encountered this evening.I stop short of saying that I was being racially profiled, however I was the only woman of color drinking Cabernet.  I'm offended and appalled of this treatment and felt compelled to share my experience.More</t>
   </si>
   <si>
+    <t>Donald B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r398853136-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -802,6 +901,9 @@
     <t>Our family has had a long term stay at this Residence Inn.The rooms are clean and spacious.  We have been very impressed with the friendly and very hard working staff.   Lisa Sorrells and her front desk staff,  Johanna, Laila, Linda, Sylvia, Vanessa,  and Tyler  are always professional, and very friendly.  We have also been very impressed with the maintenance, Ricardo,  who is always there with a smile and kind word to attend to anything needed. Joemel, Maria Sanchez, and Delia, in the Café, and even our housekeepers Delia, and Julianna.  The staff is really what makes this Marriott location so great!  They work hard to make each guest's stay pleasant.  We would definitely recommend This location to anyone.More</t>
   </si>
   <si>
+    <t>Arlene H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r391212267-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -817,6 +919,9 @@
     <t>The room was great! Very clean. Bathroom very spacious and very clean. Dishes were provided in the cabinets. Couch bed was a little lumpy but not terrible. It was definitely convenient. We wished for a rollaway bed but they didn't have any. Staff was very responsive when we asked for extra blankets. Pool was wonderful. We were able to float for hours and were not disturbed for the most part. I would definitely stay here again. Also, the breakfast was amazing! It was a full array of options.</t>
   </si>
   <si>
+    <t>TKSSHAMMIE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r390877250-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -835,6 +940,9 @@
     <t>Stopped here to stay the night and could not have been happier.  Staff was all very helpful and friendly.   Couple stains on the carpet and one of the showers smelled moldy (it was clean and no mold), and the kitchen drawers were sticky, didn't like to open/close very easy.  The windows didn't seem to want to open either.  All kind of nitpick you.  The grounds were very nice and there is a Starbucks in the Courtyard next door.  Location was right off the highway and easy to get to.  The only negative I have to say is they was only a dresser in one of the two bedrooms.  We only stayed one night so it didn't really bother us, but if it was a longer stay, it would be nice to unpack.  Would definitely stay again.  More</t>
   </si>
   <si>
+    <t>GISGoddess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r382324407-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -850,6 +958,9 @@
     <t>This hotel is showing its age.  The widows in my room opened but did not stay opened and the window sash, which was made of plastic, was chipping away.  The breakfast area is one of the smaller breakfast areas and was always full for breakfast and dinner hour.  I had an issue with being able to turn on the light on the night stand.  Turns out that the switch on the wall was turned off and that controlled the lamp on the night stand and the outlets.  The service was average.  Everyone was friendly.</t>
   </si>
   <si>
+    <t>Shorelady305</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r371852993-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -877,6 +988,9 @@
     <t>I stayed at the Residence Inn for just over 90 days, and could not have been more comfortable; everyone on staff were a wonderful,and friendly.  I would stay again if back in the area. Thank you, especially, Lois.More</t>
   </si>
   <si>
+    <t>AW330</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r364096676-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -895,6 +1009,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>jajubabu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r363563304-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -913,6 +1030,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>95SushB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r350797041-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -940,6 +1060,9 @@
     <t>Very friendly staff, nice and clean environment with kitchen facilities. Great location with all amenities nearby , this is my preferred hotel that I have stayed for a major part of my visits to the city.More</t>
   </si>
   <si>
+    <t>AngelicaDW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r346582893-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1081,9 @@
     <t>My family and I have been staying at this hotel for more than 10 years. We love it! The staff throughout the years have been kind and the breakfast is awesome! We're never disappointed, it truly is like a home away from home for us.More</t>
   </si>
   <si>
+    <t>m w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r330943366-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1111,9 @@
     <t>Have to say this one is definitely below standard here.  We came in for a big conference and work session and many of the 30 of us who are Platinumm members were amlittle disappointed.  Dogs barking in he middle of the night, stepping in dog poop in a recently cleaned room (seriously how do you miss that) to no coffe in our rooms, to no silverware at meals.Wow probably wont be staying here again.  A loss of 30 Platinum members for a month......More</t>
   </si>
   <si>
+    <t>Byork612</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r317821752-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1132,9 @@
     <t>The Residence Inn in Richardson Dallas TX is a very nice hotel. Staff were all very friendly. Clean and smelled good. Breakfast was very good. The grounds are very clean too. Thought the rooms were spacious. Our bed was a little more firm then we preferred but it was in great shape at least. Each room has its own air conditioner so it was wonderful to get the temperature as low as you wanted in the room. We had ours down on 64. It was perfect. Fridge, stove, dishwasher, sofa, TV in living room and bedroom. Easy to get to. Would recommend for the week end or an extended stay.More</t>
   </si>
   <si>
+    <t>May Therese B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r317265360-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1018,6 +1150,9 @@
     <t>Me and my colleague booked for a 2 bedroom suite in Residence Inn and we were greeted by Linda at the front desk. Check in was so easy and fast. Breakfast area is accessible and staff were friendly and very accomodating. Our room is pretty big with a kitchennette and living room area. The only complaint I have is that the carpets and bed sheets are not clean as I was getting allergy everytime we go back to the hotel. And the kitchen utensils and plates in the kitchenette were not thoroughly cleaned. Overall it was a pleasant stay!</t>
   </si>
   <si>
+    <t>KFTyler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r311283269-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1180,9 @@
     <t>From the reservation to the actual stay the staff was amazing!  They were so nice and helpful.  The hotel was clean and very roomy.  Was well worth the price.  I would definitely stay there if in the Richardson area again!More</t>
   </si>
   <si>
+    <t>Mike L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r273182394-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1204,9 @@
     <t>We had a nice suite with a Queen bed and full kitchen. The breakfast buffet had enough variety and was OK. This is a decent hotel, but parking was an issue on Sat night due to the Festival. When I went to the front desk to ask if they had any options, they didn't. Guess they expected me to drive around until something opened up. Finally parked in back of the adjacent Marriott Courtyard. I called back to the front desk to let them know there were more spaces near where I parked. They said "Oh no you can't do that, you might get towed". I requested that they please call the courtyard to ask if it was OK. After all they are both Marriott properties! But for some reason, they didn't want to call. I took my chances and my car was there the next morning. WiFi worked well.More</t>
   </si>
   <si>
+    <t>Arizonapopi1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r266358862-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1234,9 @@
     <t>stayed in a two bedroom with my mother on a visit to see her family in the Dallas area.This is an older but well kept facility in an excellent location to the freeways and food.  This would be a good place for an extendesd stay as it is not in a noisy location yet handy to the freeway. Food isn't walkable but just a short drive,When requested, staff quickly fixed a sticky iron and balky tv.Breakfast busy and well run.  Coffee always good.  Didn't eat eveneing meal here.More</t>
   </si>
   <si>
+    <t>Brian R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r263506570-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1117,6 +1261,9 @@
     <t>I have stayed at this hotel many times over the past few months on business travel, and it's my first choice when I'm in the area.  The staff is consistently friendly and helpful.  The rooms (suites) are clean, and the property is well maintained.Good price for the area.Convenient location:  5 minute walk to the DART Light Rail station;  located right near i75 and the George Bush Turnpike;  about 30 minute drive from DFW and DAL airports.Free daily breakfast, and free Manager's Reception Mon-Wed nights (hot/cold buffet, snacks, beer, wine, soft drinks).Coin-operated guest laundry rooms ($1 wash/$1 dry -- very economical compared to the drop-off service that many hotels offer).  They have same day Dry Cleaning, but I haven't used that service.I previously posted a review complaining about the hotel wifi, but I would like to amend that.  Maybe the wifi router I was connecting to when I wrote my original review was not working properly.  During my subsequent stays, the wifi has been quite acceptable.More</t>
   </si>
   <si>
+    <t>Stamy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r240118539-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1285,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Puteshestvenik5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r236656640-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1315,9 @@
     <t>My Reservation was not respected at arrival due to "overbooking".I was sent to courtyard next door which wasn't my choice. By the way, the courtyard is very unimpressive.Very disappointing experience.And a special ask for the the hotel's manager - please don't respond with slogans like how guest-centric you are, etc. I believe this overbooking practice maximizes this specific hotel profit on expense of guests , like myself, and on expense of Marriott brand. If it is a Marriott reservation practice rather than your decision - I am interested to hear that.More</t>
   </si>
   <si>
+    <t>YoavWorldWide</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r234919999-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1342,9 @@
     <t>For those of you who are on business trips to Richardson area, the Residence Inn is excellent location, and the room has a home feeling to it. I checked in in the middle of the nights and staff were extremely friendly and professional.I arrived after 1am and received room 322 in building B. I opened the door and there was such a strong smell of something (i dont know if it was some air freshener spray of too much quantity or other) that it was hard for me to stay more than a few seconds in the room. I went back to reception and immediately received a different room which was goos and with no odd smell.Other than that experience which needs to be checked and explained by the hotel management, i was satisfied with the hotel. Breakfast was complimentary and free parking (no lack of space in Dallas!).Overall if you want to feel at home , you receive a room with no strong odor and with no luxury expectations, then Residence Inn is nice play to stay in.More</t>
   </si>
   <si>
+    <t>LVSquared</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r231270430-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1372,9 @@
     <t>I am used to the RI's being much more modern, the wear on the hotel is visible, but not terrible.  Breakfast was a good spread every day and a kind lady who kept it stocked and clean.  Workout room was a bit small, awkward trying to exercise with three people in there.  Shuttle (with the most random hours) was available, and a partnership with the Bistro next door at the Courtyard. No restaurants right around there, so if you don't have a car it's a little tough. If you do have a car, there is plenty of parking so that is nice.  There is a Twisted Root though around the corner to try at least once. Depending on the rates the next time, I might come back, will have to see.More</t>
   </si>
   <si>
+    <t>glebo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r224850415-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1243,6 +1402,9 @@
     <t>I had two reservations for two consecutive nights.  On four different occasions I requested the same room for both nights.  This was not accomplished without extra conversations, extra phone calls, and much frustration.  They did make it right and apologized.Please be sure to have everything in writing and make last minute phone calls and person to person arrangements.  Staff don't seem to communicate very wellMore</t>
   </si>
   <si>
+    <t>Travel77h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r224721188-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1426,9 @@
     <t>I stayed 3 nights there. Breakfast was enough but not a lot of collection, the room, 1 bedroom, is comfortable and spacious. The swimming pool is a little small. Good friendly staffs. I like the afternoon snack for guests, the food and refreshment were nice and more than I expected, this hotel is not bad, but the furnitures in the room were a little old. I stayed at newer and better Residence Inn. Over all, it is still a good choice to stay in richardson.More</t>
   </si>
   <si>
+    <t>Itai L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r217181734-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1456,9 @@
     <t>great staff receptionists, kitchen and all others very nice and accommodatingroom was big and clean with all needed for a business tripe enough electricity sockets big TV grate bad happy hour for after work relaxation  near the 75 high way close to all shopping malls for weekend excitementMore</t>
   </si>
   <si>
+    <t>Susan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r214733475-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1312,6 +1480,9 @@
     <t>Stayed here for a week. Location is very quiet in an office park and there was no noise.  Staff was very nice and friendly. Rooms were large and spacious and bed was very comfortable.Only minor housekeeping issues - there was some trash under the bed and had to go to front desk to get Kleenex for bathroom.  Satellite TV was spotty.  Free Wi-Fi did work great but they offer upgraded Wi-Fi if you need it for a fee.  Evening happy hour/light dinner M-Th was adequate and decent if you eat a large lunch and only want something light.  Breakfast varied each day and had good quality and variety.  Fitness room was very nice and area is great for walking/running but there are no shops/restaurants within walking distance but they did offer a shuttle to take you to nearby shopping etc.More</t>
   </si>
   <si>
+    <t>ALTX01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r204059789-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1501,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Dana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r193816357-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1351,6 +1525,9 @@
     <t>Our family stayed here for nearly three months while our house was being remodeled post-flood - two adults, one teenager and two BIG dogs - and the entire staff couldn't have been nicer. The en suite kitchenette has everything you might need for cooking, but you seldom have to cook since the Marriott offers a full hot breakfast every day and dinner Monday through Thursday evenings.  Plus beer and wine.  If you're vegetarian, let them know! They are happy to prepare something for you, too!  If you have dogs, you might want to be prepared for the rabbits that are everywhere around this property.  Housekeeping is typical Marriott, which is top notch. Really, I have no negative comments.Just saw Mr. Kuldeep's review.. really? A lost car battery charger makes a bad review? Don't be ridiculous.More</t>
   </si>
   <si>
+    <t>WildWilliam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r190557965-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1369,6 +1546,9 @@
     <t>Due to a frozen water pipe, our flooded home ushered us to this nicely equipped and maintained  Marriott property in our neighborhood.  So far, we've been here 5 nights and continue to think of this as a highly recommendable property.  Everything has been the typical, high level of Marriott expectations - the property was refurbished in Sept 2013, with nicely furnished rooms, comfortable and evidently well cleaned.  Even the weekday evening meals (included with the room) have been commendable.  The hot breakfast selections are varied and suitable to almost every taste.  Staff have been friendly, capable, and helpful.  Only the housekeeping staff strayed a little off of the expected path - took my bath soap bar and partially used shampoo bottle without leaving new replacements.  Yet, they brought a bottle of lotion from the front desk when I asked they had any on their cleaning cart.  It's been a very good, 5-day stay for us.  You shouldn't have any problems, either.  Oh yeah, it's a "dog friendly" place, but only in certain, designated rooms.More</t>
   </si>
   <si>
+    <t>RonldH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r189156503-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1570,9 @@
     <t>The hotel was comfortable, the location convenient for the places we needed to go but in any case close to main routes. The breakfast, which was included, was limited but good. My wife forgot her jewellery and some cosmetics in the room and discovered it only when we returned home. We called two days later to enquire about the items. We spoke with Mee Ross who was very friendly and agreed to check the following day and call us, which she did after finding them. She agreed to ship it off to us. At the time I posted my initial review, the items had not arrived and I promised that I would update the review once they did. I am pleased to say that the items arrived safely. I really wanted to make this update particularly since I had seen an earlier review complaining of not having received items reportedly left at the hotelMore</t>
   </si>
   <si>
+    <t>scarletman1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r167085019-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1591,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>LostOnLandAgain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r161200221-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1612,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>nprescot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r155687021-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +1633,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>SaraLZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r152490899-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1462,6 +1654,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Watercooled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r151764651-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1498,6 +1693,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Mimaboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r139967621-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1717,9 @@
     <t>3 days in a 2bdrm/2bth apartment style hotel room.  Perfect for the 4 of us.  Very clean, no mold, no marks on the walls, carpets had no stains, clean kitchen cabinets and appliances (coffee maker, microwave, fridge and stove).  Breakfast is well done and included in room price - yes, I did think the room was little over-priced, there are many less expensive options in the area but we wanted to all stay together but have separate bedrooms and baths.  Smallish fitness facility adequate for short stay but if you are planning to stay longer than few days - as in you are moving to area and staying in this facility while searching for a permanent home - then you may want to check out other fitness facility.  Loved the location, quiet, off the crowded freeway but still within 5 minutes of many shopping and dining options.  Couple comments - 1) our room needs to be exterminated, couple small crawly things in the bathroom.  2)the hallways are like meat lockers, very very very cold, unnecessarily so.More</t>
   </si>
   <si>
+    <t>Sonna895</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r133048411-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +1741,9 @@
     <t>Hi!!!Feel this hotel is best suited for those who stay for long duration as it provides complimentary breakfast, evening snacks and a kitchenette for some cooking.Likes:1. Nice location-peaceful,calm2. Friendly staff-Housekeeping+front office staff are friendly and offer prompt service3. Free shuttle service within 5 mile radius-That operates on weekdays at fixed timings.So, can    shop,dine, roam around in nearby places4. Dart rly station at walking distance-Trains cover most hotspots.So, can visit these tourist attractions with a single day pass without much hassle5.Swimming Pool-b'tiful outdoor pool that closes late in the night.Also provided with a hot pool.Things that could have been better:1. Fixed/Standard Breakfast-day in and day out, same buffet menu, that gets boring after a while.2. No boundary walls-The hotel premises are open to the front/back roads.There're no walls,which may pose a threat to securityMore</t>
   </si>
   <si>
+    <t>Andreas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r132007940-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1558,6 +1762,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>DMSmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r128886116-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1784,9 @@
   </si>
   <si>
     <t>My husband &amp; I always stay at this hotel when we visit Dallas, it's always a perfect location for us, just of I-75 and close to all our favorite eating &amp; shopping spots.  What a pleasant surprise this time when we stepped into a newly remodeled room: carpet, appliances, furnishings.  It feels like the room expanded in size with the smart new l-shaped sofa.   It was a full house, but you would never know because the rooms are always quiet.  Didn't do the breakfast this time as they were still working on the front lobby, but really, who would want to eat any hotel complimentary breakfast when there's a Le Madeline's nearby?Two downers:  I though the pillows were a little hard &amp; there was a small gap in the black-out drapes (I experience that in most hotels though)More</t>
+  </si>
+  <si>
+    <t>Generic90</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r123762586-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1606,6 +1816,9 @@
 I believed I was booked into...I stayed at this property from late September through early December 2011 for a consulting project in Dallas.  As with many of my projects, I did not have a great deal of say in where I would be staying, though I am pretty particular because of the duration of the projects that makes lodging a huge factor.  Though, after a horrible lodging experience six years prior in the Dallas area, I arrived rather leery and skeptical about where I would be staying.This property is just off the North Central Expressway (Highway 75) in Richardson, and is tucked in the middle of a corporate park.  Even with familiarity of the area, the property can be tricky to find, GPS or no.  Once found, though, you realize it is easy to get to, as it is just off Greenville Avenue, which is a major thoroughfare and great alternative to get into downtown Dallas on the morning commute.  First-time visitors - especially those unfamiliar with the area - should definitely have GPS or very precise directions.The property is divided into two buildings (3 floors each) of guest rooms, with a central "community" building where the front desk is located.  There is an outdoor pool, a gym with limited equipment.  Laundry facilities seem limited - during my stay, it seemed that there was only one laundry room for each building, and cleanliness was sometimes an issue.    I believed I was booked into a one-bedroom suite, but wound up with a studio-type suite.  There was no division between kitchenette, living ,area, and bedroom.  An HD flat-screen TV was set on a low table so that it could be rotated 180 degrees from the bed area to the sofa.  Adjacent to the bed was a vanity area and the closet, and a small separate bathroom with toilet and shower.  Shelf space for clothing was extremely limited, though the closet was sufficient.  TV channel selection was rather limited;  while they operated off of a Dish TV system (different from most Marriott properties), it was perhaps 25 channels - and that's not counting the multiple ESPN channels that were offered in both HD and non-HD formats.  That proved to be quite a waste.Internet access was offered only in wireless format, which was fine, but it was set up in a pretty stupid way.  They had one option that was free, but which limited a lot of the functionality and data you could use.  The other was purportedly a "business" option that was unlimited, but cost $4.99/night.  However, for the duration of my stay, I could never make the "business" option work.  Frankly, as a Platinum member, I would figure that I could at least be able to access it.  Also, business travelers should be warned that the "business" center advertised on the property was only a desktop computer next to the front desk that did not have any of the Office suite or PDF capabilities to open, view, or print those documents.  Basically, it's only function was to print boarding passes, provided the computer was working.The property does offer a daily breakfast, though due to the nature of my project, I never ate there.  However, it was interesting to note that while the breakfast was free at the Residence Inn, there was a charge for breakfast next door at the Courtyard.  So, you would always see guests of the Courtyard walking over to the Residence Inn for the free breakfast.  It was interesting to me that this was tolerated, even though these properties are owned by the same corporation.  A few nights each week, the Residence Inn also offered a limited dinner-type selection.  I only ate there once, and it was not particularly good, nor were the nightly offerings particularly appealing to me.Dallas seems to have a problem with its extended stay lodging, probably as a result of being used for temporary housing after Hurricane Katrina and Hurricane Ike.  My previous stay in Dallas was marred by a property that had been thoroughly trashed by those moved in from the hurricane areas.  It seems that this property was also used, or at the very least is a high-traffic property, because there was a lot of wear and tear throughout my room and the property in general.  Specific to the room, there was a lot of paint chips, exposed nail heads in the walls, a semi-functional closet door, and kitchen appliances that worked to varying degrees.Another thing seemingly unique to Dallas, compared to every other location around the country where I have traveled for business or pleasure, is that these extended stay properties seem to have a fairly significant number of long-term residents.  By that I mean, people that are actually staying at the hotel as anyone else would an apartment.  There were quite obviously several on the floor in rooms near mine, based on general observations and overhearing conversations in the hallway when I would encounter them.  It seems a little odd, and while not necessarily an inconvenience to me, it might be to other travelers.Although this property is close to the expressway, it is really isolated in terms of groceries, restaurants, and dining.  Travelers staying at this property will have to drive anywhere from a half-mile (for a couple of sit-down dining options and a handful of fast-food) or more for dining options, at least a couple of miles for groceries, and 3 or more miles for more upscale dining and any of the plethora of shopping malls.  So, travelers should definitely have a vehicle to get around; though, if you're visiting the Dallas-Fort Worth area, you really can't get anywhere without a vehicle.Housekeeping services were wildly inconsistent in terms of quality of the cleaning services.  Worse, a few of the housekeepers had the bad habit of opening the windows in the room and/or cranking the thermostat up to 80.  So there were several occasions where I would return to the room on days I had housekeeping done, and had to spend the evening waiting for the room to cool down or - if thunderstorms had blown through - trying to dry the curtains and furniture nearest the windows.  As for the front desk staff, they were generally courteous and helpful, though there was one - apparently a supervisor - who was a little more overboard than was necessary with regards to guests picking up packages.  On two occasions, I had express/priority mail packets that arrived during her shift.  While I appreciated the fact that she double-checked my photo ID to make sure the parcel was being picked up by the correct guest, I did not appreciate the litany of questions that followed, quizzing me on the sender and the exact contents of the parcel.  In one case, I was not expecting the package, and so was extremely frustrated when it seemed like I wasn't going to be able to receive the parcel because I couldn't tell her who it was from and what was in the parcel. Frankly, those questions are not appropriate for anyone to ask, regardless of what the guest is really receiving. One last inconvenience: during the last several weeks of my stay, a locksmith was on site purportedly changing out the keycard locks on the guest rooms and building access doors.  In fact, the management posted notices on the guest room doors in early October notifying us that the room locks would be changed that week.  But they weren't actually changed until late November.  The keycards - particularly to get into the buildings - were often problematic from the outset of my stay.  So, I hoped that whenever they did change, they would resolve that problem.  Instead, when they finally changed, I first had to go back to the front desk, where I received two different key cards - one for the building access, and one for the room (instead of the one I used for both up this point).  Over the course of the next four nights, I had to return to the front desk to get new key cards for the room, the building, or both.  It wasn't that they got erased; it was that the locksmith kept fiddling with the locks, and invalidating the cards that the guests were issued the previous day.  It was a huge nuisance.  All told, this property was servicable for what turned out to be a very difficult project.  However, it was not up to my expected standards for a Marriott property, and seems to demonstrate that Dallas (as a whole) still seems to have a problem with the quality of their extended stay properties.  I was reluctant to move elsewhere during my stay, if only because there was no guarantee that I could find better.  In that regard, it was unfortunate, and I could only classify it among the "least-worst" option for business travelers if they cannot find better in the area.More</t>
   </si>
   <si>
+    <t>roserejil2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r120147476-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1624,6 +1837,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>Manny82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r114118242-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1643,6 +1859,9 @@
   </si>
   <si>
     <t>This was the first time I ever travelled out of my country, without friends /family so was hoping I would get a good place to stay which wouldn't make me miss home too much.My company put me up at Residence Inn Dallas Richardson for a duration of 1 month. This is a long time to be staying at at hotel. However, the accomodation  at Residence Inn Dallas Richardson was way above my expectations. The suite are well equiped with all you need in a home like atmosphere. The hotel serves a decent american breakfast each day and some evening snacks too to the inhouse guests. Though by the end of the trip I was craving for some good Indian food :) It is definately not bad though. The hotel had a reletively small gym but served the purpose of fitness and a nice swimming pool too. Overall, a very Cozy, home like place to stay at.More</t>
+  </si>
+  <si>
+    <t>mgp_31</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r86099084-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1680,6 +1899,9 @@
 As asked...As similar to my other business trips, my company booked this hotel for me and my other collegues recommended me too since it is nearby office area.This was my first trip to US for business meeting. It was a long journey for me around 32 hours (from my home Pune, India). I reached to hotel in evening around 5.30 PM, during the check in I come to know there is no single room available so the receptionist offered me double room with the same charge for 1 day and told me will shift my stuff to single room on next day, also he suggested to contact reception in the morning as on arrival my AMEX car did not work so next day after solving the card issue I had to swipe it again. After going into room I was too tired so sleep soonRooms:Room was quite good, big LCD TV, Free Internet but speed is not so good, fridge, Hot Plate, Microwave, Toaster, Coffee Maker, Dish Washer , bathtub &amp; shower and Kingsize bed, etc.Breakfast:I was too hungry in the morning so went to do breakfast. It was standard American breakfast and in my whole stay I dont see there are any changes in it. The options are not too much so personally I did not like the breakfast much here. Even comparing with other Mariott hotels the breakfast is OK.Reception Service:As asked to contact reception on next day, I went over and told I had been told during check-in that I will be shifted to another single room but the receptionist(another one) in morning told me they dont have single room available and will charge $200 from $79 even though I had a confirmed booking for around month. I had asked her to change the charge to $200 for that day and after confirmation from company will decide to continue with Mariott or not. In the evening after returning into Hotel, the person who was present during the checkin told me that my stuff is shifted into another single room. So this seems to be some kind of mis communication between the staff.Evening Snacks:Monday to Thursday you can enjoy the snacks in hotel for free of cost between 5.30 to 7.30. Note that there is no resturant service in hotel so will not get lunch or dinner in hotel and have to arrange it yourself.Other ServicesInternet:Wi-fi is available at free of cost in lobby area, in rooms you will get wired connection. Internet speed is too slow.Shuttle Service:Shuttle service is available in the morning and evening for pick-up and drop to office on prior booking.Recreational Activities:Gym, Swimming Pool, Tennis play ground are available at free of cost.Laundry:The washing machine and dryer are available where you can put all your clother for wash in just $2 (+ $2 for the washing powder and scented powder) .Other important thingsThe hotel is on walkable distance from AT&amp;T, Metro PCS, Verizon, Nortel Network, Cisco Network, Samsung Mobiles, Bank of America, etc.Hotel is close to Galatyn park railway station where you can get $4 local full day pass which can be used for all the Metros and DART buses.There are no markets on walkable distance so you need to call taxi (you can search for Yellow Cab) as near to Hotel there are no cabs available.In all enjoyed my trip.More</t>
   </si>
   <si>
+    <t>RAJTH85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r63400858-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1698,6 +1920,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>HudsonValleyGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r20372665-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1716,6 +1941,9 @@
     <t>Stayed here for 2 weeks on a business trip.  Took a 3rd / top floor suite.  It is located in a corporate park area, so it's quiet at night.  Only other hotel was the (typically) Courtyard next door.The room was always very clean.  The internet connection was good.  As far as equipment, microwave broke during my stay, but was replaced by the time I returned that evening with a brand new one.    I asked for a new iron as the one I had was spittig out mineral deposits.  The Desk had a new one up to me room in 10 minutes.The breakfasts were always hot  and fresh.. with a complete assortment of items.It was easy access to a many of the corporations in the area.  Restaurants are within a few miles, none walking distance.I must also compliment the staff &amp; management.  My stay started a few days before Hurricane Ike hit the Texas Gulf Coast.  The hotel was booked solid with evacuees for over a week.  The staff handled everything without missing a beat in service or quality despite the trying times.More</t>
   </si>
   <si>
+    <t>police528</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r19897752-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1737,6 +1965,9 @@
     <t>My wife and I needed a place to stay for 2 nights when we visited our 2 grandchildren. We needed a place that would accomodate us all so our grandchildren could spend the night with us.We reserved a 2 bedroom which was ideal. Check-in was very easy and the staff is very friendly and professional. Each room had a queen bed and the livingroom couch pulled out into a bed. The kitchen was the perfect size. One thing I loved was the full-size coffee pot rather than the small 2 cup ones usually in the rooms. The hotel is very clean. The pool is outdoors and although there were leaves in the pool it was clean. This hotel is several blocks off all the main roads so there is absolutly no highway noise at all. I loved this place and we will stay there eveytime we visit.More</t>
   </si>
   <si>
+    <t>ibeplato</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r16157855-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +1986,9 @@
     <t>May 2008</t>
   </si>
   <si>
+    <t>karenp729</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r7330084-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1773,6 +2007,9 @@
     <t>April 2007</t>
   </si>
   <si>
+    <t>HumptyHump</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r6642182-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1789,6 +2026,9 @@
   </si>
   <si>
     <t>January 2007</t>
+  </si>
+  <si>
+    <t>Over_the_River</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109028-r6157623-Residence_Inn_by_Marriott_Dallas_Richardson-Richardson_Texas.html</t>
@@ -2314,43 +2554,47 @@
       <c r="A2" t="n">
         <v>65495</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>15392</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2368,50 +2612,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65495</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175831</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2425,50 +2673,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65495</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175832</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2482,50 +2734,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65495</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175833</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
         <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2539,50 +2795,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65495</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>20354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2596,50 +2856,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65495</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175834</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2653,50 +2917,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65495</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175835</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2714,56 +2982,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65495</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175836</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2777,50 +3049,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65495</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2840,50 +3116,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65495</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175837</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2897,50 +3177,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65495</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>128444</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2958,50 +3242,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65495</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175838</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>119</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>109</v>
-      </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3015,50 +3303,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65495</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175839</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3078,50 +3370,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65495</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175840</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3135,50 +3431,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65495</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>5721</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3198,50 +3498,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65495</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175841</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3259,50 +3563,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65495</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175842</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3322,50 +3630,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65495</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>29444</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>152</v>
       </c>
-      <c r="K19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>137</v>
-      </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3379,50 +3691,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65495</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175843</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>159</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>143</v>
-      </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3442,50 +3758,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65495</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3503,50 +3823,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65495</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175844</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3560,50 +3884,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65495</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175845</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3617,50 +3945,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65495</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175846</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3680,50 +4012,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65495</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175847</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3741,50 +4077,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65495</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3802,50 +4142,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65495</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>13744</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3859,50 +4203,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65495</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175848</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3914,56 +4262,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="X28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="Y28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65495</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175849</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3981,50 +4333,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65495</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175850</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4042,50 +4398,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65495</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175851</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4103,50 +4463,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65495</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175852</v>
+      </c>
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4166,50 +4530,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65495</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>84319</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4221,56 +4589,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="X33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="Y33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65495</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>24104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>271</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4288,50 +4660,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65495</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>55229</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4351,50 +4727,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65495</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175853</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4408,50 +4788,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65495</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>126739</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4469,50 +4853,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65495</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>175854</v>
+      </c>
+      <c r="C38" t="s">
+        <v>298</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4530,56 +4918,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="X38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65495</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175855</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4597,50 +4989,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65495</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175856</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4654,50 +5050,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65495</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175857</v>
+      </c>
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4711,56 +5111,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="X41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="Y41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65495</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175858</v>
+      </c>
+      <c r="C42" t="s">
+        <v>332</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="J42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4778,56 +5182,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="X42" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="Y42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65495</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175859</v>
+      </c>
+      <c r="C43" t="s">
+        <v>339</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="J43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -4845,56 +5253,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="X43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="Y43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65495</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175860</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4912,50 +5324,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65495</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175861</v>
+      </c>
+      <c r="C45" t="s">
+        <v>356</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="J45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4969,50 +5385,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65495</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175862</v>
+      </c>
+      <c r="C46" t="s">
+        <v>362</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="J46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="O46" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5028,56 +5448,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="X46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="Y46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65495</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>925</v>
+      </c>
+      <c r="C47" t="s">
+        <v>372</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="J47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5095,50 +5519,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65495</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>175863</v>
+      </c>
+      <c r="C48" t="s">
+        <v>380</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="J48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="K48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="O48" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5156,56 +5584,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="X48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="Y48" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65495</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>9634</v>
+      </c>
+      <c r="C49" t="s">
+        <v>390</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="K49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5223,56 +5655,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="X49" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="Y49" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65495</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175864</v>
+      </c>
+      <c r="C50" t="s">
+        <v>399</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="J50" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="O50" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5296,50 +5732,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65495</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175865</v>
+      </c>
+      <c r="C51" t="s">
+        <v>407</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="J51" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5351,56 +5791,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="X51" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="Y51" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65495</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175866</v>
+      </c>
+      <c r="C52" t="s">
+        <v>417</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="J52" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5412,56 +5856,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="X52" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="Y52" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65495</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>175867</v>
+      </c>
+      <c r="C53" t="s">
+        <v>426</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="J53" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5479,56 +5927,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="X53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="Y53" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65495</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175868</v>
+      </c>
+      <c r="C54" t="s">
+        <v>436</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="J54" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="O54" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5546,56 +5998,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="X54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="Y54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65495</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>175869</v>
+      </c>
+      <c r="C55" t="s">
+        <v>446</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="J55" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="K55" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="O55" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5613,56 +6069,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="X55" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="Y55" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65495</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>175870</v>
+      </c>
+      <c r="C56" t="s">
+        <v>454</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="J56" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5678,56 +6138,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="X56" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="Y56" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65495</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>15760</v>
+      </c>
+      <c r="C57" t="s">
+        <v>464</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="J57" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="K57" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="L57" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5745,50 +6209,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65495</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175871</v>
+      </c>
+      <c r="C58" t="s">
+        <v>472</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="J58" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="O58" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5812,50 +6280,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65495</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>42757</v>
+      </c>
+      <c r="C59" t="s">
+        <v>479</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="J59" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="K59" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="O59" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5879,50 +6351,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65495</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>175872</v>
+      </c>
+      <c r="C60" t="s">
+        <v>487</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="J60" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="K60" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="L60" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="O60" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5946,50 +6422,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65495</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175873</v>
+      </c>
+      <c r="C61" t="s">
+        <v>494</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="J61" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="K61" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6013,50 +6493,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65495</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>175874</v>
+      </c>
+      <c r="C62" t="s">
+        <v>502</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="J62" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="O62" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6080,50 +6564,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65495</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175875</v>
+      </c>
+      <c r="C63" t="s">
+        <v>509</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="J63" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="K63" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6147,50 +6635,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65495</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175876</v>
+      </c>
+      <c r="C64" t="s">
+        <v>516</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="J64" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6214,50 +6706,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65495</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175877</v>
+      </c>
+      <c r="C65" t="s">
+        <v>523</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="J65" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="K65" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="L65" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="O65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6281,50 +6777,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65495</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>175878</v>
+      </c>
+      <c r="C66" t="s">
+        <v>530</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="J66" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="O66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6348,50 +6848,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65495</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>175847</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="J67" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="K67" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="L67" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="O67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6415,50 +6919,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>65495</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>175879</v>
+      </c>
+      <c r="C68" t="s">
+        <v>543</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="J68" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="K68" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="O68" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6482,50 +6990,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65495</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>175880</v>
+      </c>
+      <c r="C69" t="s">
+        <v>551</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="J69" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="K69" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="L69" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="O69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6549,50 +7061,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65495</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>175881</v>
+      </c>
+      <c r="C70" t="s">
+        <v>559</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="J70" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="K70" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="L70" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="O70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6616,50 +7132,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65495</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>100608</v>
+      </c>
+      <c r="C71" t="s">
+        <v>566</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="J71" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="K71" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="L71" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6683,50 +7203,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65495</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>44771</v>
+      </c>
+      <c r="C72" t="s">
+        <v>574</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="J72" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="K72" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="L72" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="O72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6750,50 +7274,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65495</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>175882</v>
+      </c>
+      <c r="C73" t="s">
+        <v>582</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="J73" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="K73" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="L73" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="O73" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6817,50 +7345,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65495</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175883</v>
+      </c>
+      <c r="C74" t="s">
+        <v>589</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="J74" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="K74" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="L74" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="O74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6880,50 +7412,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65495</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>175884</v>
+      </c>
+      <c r="C75" t="s">
+        <v>597</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="J75" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="K75" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="L75" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="O75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -6947,50 +7483,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>65495</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>175885</v>
+      </c>
+      <c r="C76" t="s">
+        <v>605</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="J76" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="K76" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="L76" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="O76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7014,41 +7554,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>65495</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C77" t="s">
+        <v>612</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="J77" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="K77" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="L77" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -7077,50 +7621,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>65495</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>175886</v>
+      </c>
+      <c r="C78" t="s">
+        <v>619</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="J78" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="K78" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="L78" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7144,50 +7692,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>65495</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>175887</v>
+      </c>
+      <c r="C79" t="s">
+        <v>627</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="J79" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="K79" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="L79" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="O79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7211,50 +7763,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>65495</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175888</v>
+      </c>
+      <c r="C80" t="s">
+        <v>634</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="J80" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="K80" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="L80" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7278,50 +7834,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>65495</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>175889</v>
+      </c>
+      <c r="C81" t="s">
+        <v>641</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>563</v>
+        <v>642</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>564</v>
+        <v>643</v>
       </c>
       <c r="J81" t="s">
-        <v>565</v>
+        <v>644</v>
       </c>
       <c r="K81" t="s">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="L81" t="s">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="O81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7343,50 +7903,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>567</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>65495</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>175890</v>
+      </c>
+      <c r="C82" t="s">
+        <v>648</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="J82" t="s">
-        <v>571</v>
+        <v>651</v>
       </c>
       <c r="K82" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="L82" t="s">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="O82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7410,7 +7974,7 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
